--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>guestbook</t>
   </si>
@@ -179,6 +179,45 @@
   <si>
     <t>35M</t>
   </si>
+  <si>
+    <t>no-eager-error</t>
+  </si>
+  <si>
+    <t>with-eager-error</t>
+  </si>
+  <si>
+    <t>100 APIs in DB</t>
+  </si>
+  <si>
+    <t>0 APIs in DB</t>
+  </si>
+  <si>
+    <t>0 Policies</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>EAGER overhead only</t>
+  </si>
+  <si>
+    <t>0 dependencies</t>
+  </si>
+  <si>
+    <t>batch-publish-average</t>
+  </si>
+  <si>
+    <t>std.error</t>
+  </si>
+  <si>
+    <t>Max error:</t>
+  </si>
+  <si>
+    <t>after publish-batch</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
 </sst>
 </file>
 
@@ -226,8 +265,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,7 +381,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -344,6 +419,24 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -381,6 +474,24 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,11 +612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099680296"/>
-        <c:axId val="-2100013960"/>
+        <c:axId val="2129465816"/>
+        <c:axId val="-2085009560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099680296"/>
+        <c:axId val="2129465816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100013960"/>
+        <c:crossAx val="-2085009560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100013960"/>
+        <c:axId val="-2085009560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -573,11 +684,1416 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099680296"/>
+        <c:crossAx val="2129465816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead by Application</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$174:$F$181</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.00556947379873666</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0102733946007436</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0247038131583128</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0215259414339649</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00934036756529825</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0286589331035668</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0193335250886336</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$174:$F$181</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.00556947379873666</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0102733946007436</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0247038131583128</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0215259414339649</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00934036756529825</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0286589331035668</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0193335250886336</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$174:$A$180</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>guestbook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>guestbook-java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>appinventor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hawkeye</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rest-app</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dependent-app</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dependent-app-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$174:$E$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1043450832368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.112340529759667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.132539908091267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1271289984385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.915792703628667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.629314978917333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.989740928015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2099246920"/>
+        <c:axId val="-2102374440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2099246920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102374440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2102374440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099246920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs No. of Dependencies in Application</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$223:$F$228</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.05353414013593</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.115611410359074</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.100638262012063</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0877158150365428</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.106636823249251</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14914124673569</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$223:$F$228</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.05353414013593</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.115611410359074</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.100638262012063</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0877158150365428</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.106636823249251</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.14914124673569</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$223:$A$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$223:$E$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.856157938639333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.855063041051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80679098765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.894160906475333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.845088005064667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.944982687634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2099744888"/>
+        <c:axId val="-2112026760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2099744888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Dependencies in App</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112026760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2112026760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Spent on Eager (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099744888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> No. of APIs in Application</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$198</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$199:$F$209</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00133389935064588</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0708554596193621</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.111973117266709</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.975050045970772</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.342355259025062</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.800517148803558</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.183376995014578</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.058104409406186</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.045094710381896</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.929979628367866</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.52818430323582</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$199:$F$209</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00133389935064588</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0708554596193621</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.111973117266709</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.975050045970772</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.342355259025062</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.800517148803558</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.183376995014578</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.058104409406186</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.045094710381896</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.929979628367866</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.52818430323582</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$199:$A$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$199:$E$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0492372512817333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.743158737818333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99296061198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.54579011599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.67411430677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.506900231043333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.107440074286666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.375541051230001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.366884311040001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.496133724846665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.419738213223332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$198</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>batch-publish-average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$199:$K$209</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00370667850060504</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.103366780445889</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.195012639797504</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.311261863973456</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1289646142266</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.372157749300515</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.333183850501163</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.233997123492097</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.379852346397627</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.577495509453203</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.574399542410954</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$199:$K$209</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00370667850060504</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.103366780445889</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.195012639797504</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.311261863973456</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1289646142266</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.372157749300515</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.333183850501163</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.233997123492097</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.379852346397627</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.577495509453203</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.574399542410954</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$199:$A$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$199:$J$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1015052795411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.773399353027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.37438201904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.533423264823333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.825086990993333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.43541177114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.854134956996666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.873910268146667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.360917329786667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.639660358426667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.81201871236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2096351768"/>
+        <c:axId val="-2096460600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2096351768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of APIs in Application</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096460600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096460600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Spent on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096351768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Overhead vs No. of APIs in Database</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$273</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guestbook</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$274:$A$278</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0/1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$274:$B$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1043450832368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0996402899424666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0971752802531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100759744644333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0995873610178666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$273</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simple-rest-app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$274:$A$278</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0/1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$274:$C$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.915792703628667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000602006911667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995639562605333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.481571356456667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.85731903712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$273</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dependent-app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$274:$A$278</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0/1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$274:$D$278</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.629314978917333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.649480819702333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60812830925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.880454937617333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.506421645483333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2101221992"/>
+        <c:axId val="-2095086904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2101221992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of APIs in Database</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2095086904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2095086904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101221992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -695,11 +2211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128616504"/>
-        <c:axId val="-2103556440"/>
+        <c:axId val="-2098119288"/>
+        <c:axId val="-2100325432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128616504"/>
+        <c:axId val="-2098119288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +2249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103556440"/>
+        <c:crossAx val="-2100325432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +2257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103556440"/>
+        <c:axId val="-2100325432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -772,7 +2288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128616504"/>
+        <c:crossAx val="-2098119288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,11 +2552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2098191384"/>
-        <c:axId val="-2101012200"/>
+        <c:axId val="-2096495720"/>
+        <c:axId val="-2107662248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098191384"/>
+        <c:axId val="-2096495720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +2584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101012200"/>
+        <c:crossAx val="-2107662248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1076,7 +2592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101012200"/>
+        <c:axId val="-2107662248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +2622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098191384"/>
+        <c:crossAx val="-2096495720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1378,11 +2894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101363352"/>
-        <c:axId val="-2102209752"/>
+        <c:axId val="-2101207560"/>
+        <c:axId val="-2097048424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101363352"/>
+        <c:axId val="-2101207560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +2927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102209752"/>
+        <c:crossAx val="-2097048424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +2935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102209752"/>
+        <c:axId val="-2097048424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1455,7 +2971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101363352"/>
+        <c:crossAx val="-2101207560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,7 +3046,7 @@
                     <c:v>0.273902847145826</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.018549416721322</c:v>
+                    <c:v>5.371392065256508</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.38697254228915</c:v>
@@ -1560,7 +3076,7 @@
                     <c:v>0.273902847145826</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.018549416721322</c:v>
+                    <c:v>5.371392065256508</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.38697254228915</c:v>
@@ -1620,7 +3136,7 @@
                   <c:v>24.54049062726667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.6933433213333</c:v>
+                  <c:v>144.9443499246667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.49199501673333</c:v>
@@ -1787,11 +3303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100857640"/>
-        <c:axId val="-2098057848"/>
+        <c:axId val="-2101172360"/>
+        <c:axId val="-2097512008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100857640"/>
+        <c:axId val="-2101172360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +3316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098057848"/>
+        <c:crossAx val="-2097512008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1808,7 +3324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098057848"/>
+        <c:axId val="-2097512008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1839,7 +3355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100857640"/>
+        <c:crossAx val="-2101172360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,6 +3517,48 @@
               </c:numRef>
             </c:minus>
           </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$121:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$121:$E$131</c:f>
@@ -2055,11 +3613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103885016"/>
-        <c:axId val="-2106537080"/>
+        <c:axId val="-2100611288"/>
+        <c:axId val="-2097213160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103885016"/>
+        <c:axId val="-2100611288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,10 +3642,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106537080"/>
+        <c:crossAx val="-2097213160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2095,7 +3654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106537080"/>
+        <c:axId val="-2097213160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2131,7 +3690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103885016"/>
+        <c:crossAx val="-2100611288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2331,11 +3890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099303832"/>
-        <c:axId val="-2099000408"/>
+        <c:axId val="-2096169096"/>
+        <c:axId val="-2097703976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099303832"/>
+        <c:axId val="-2096169096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +3923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099000408"/>
+        <c:crossAx val="-2097703976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2372,7 +3931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099000408"/>
+        <c:axId val="-2097703976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2403,7 +3962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099303832"/>
+        <c:crossAx val="-2096169096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2494,7 +4053,7 @@
                   <c:v>-1.104677543537464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.664428977282756</c:v>
+                  <c:v>0.786968958725318</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.103704796673571</c:v>
@@ -2521,11 +4080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2099063480"/>
-        <c:axId val="-2112490456"/>
+        <c:axId val="-2096751304"/>
+        <c:axId val="-2100565288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099063480"/>
+        <c:axId val="-2096751304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +4093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112490456"/>
+        <c:crossAx val="-2100565288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2542,10 +4101,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112490456"/>
+        <c:axId val="-2100565288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60.0"/>
+          <c:max val="10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2554,7 +4113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099063480"/>
+        <c:crossAx val="-2096751304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2657,7 +4216,7 @@
                   <c:v>-0.271093289033331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.391673644666667</c:v>
+                  <c:v>1.14066704133333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.0243623256666687</c:v>
@@ -2684,11 +4243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2105539032"/>
-        <c:axId val="-2094989544"/>
+        <c:axId val="-2097445288"/>
+        <c:axId val="-2097302936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105539032"/>
+        <c:axId val="-2097445288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +4256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094989544"/>
+        <c:crossAx val="-2097302936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,11 +4264,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094989544"/>
+        <c:axId val="-2097302936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
-          <c:min val="-10.0"/>
+          <c:min val="-2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2718,7 +4277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105539032"/>
+        <c:crossAx val="-2097445288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3002,6 +4561,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3332,10 +5011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O40" workbookViewId="0">
-      <selection activeCell="AF63" sqref="AF63"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3820,7 +5499,7 @@
         <v>24628.694057500001</v>
       </c>
       <c r="K42">
-        <v>136550.214052</v>
+        <v>140303.23386199999</v>
       </c>
       <c r="L42">
         <v>138498.47579</v>
@@ -3963,7 +5642,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="6"/>
-        <v>143693.34332133332</v>
+        <v>144944.34992466666</v>
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
@@ -4021,7 +5700,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>143.69334332133332</v>
+        <v>144.94434992466665</v>
       </c>
       <c r="L46">
         <f t="shared" si="7"/>
@@ -4079,7 +5758,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="8"/>
-        <v>6.0185494167213225</v>
+        <v>5.3713920652565088</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
@@ -4110,6 +5789,12 @@
       <c r="F49" t="s">
         <v>48</v>
       </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
@@ -4181,7 +5866,7 @@
       </c>
       <c r="B52">
         <f>K46</f>
-        <v>143.69334332133332</v>
+        <v>144.94434992466665</v>
       </c>
       <c r="C52">
         <f>L46</f>
@@ -4189,18 +5874,18 @@
       </c>
       <c r="D52">
         <f t="shared" si="9"/>
-        <v>1.6644289772827561</v>
+        <v>0.7869689587253178</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
       </c>
       <c r="F52">
         <f t="shared" si="10"/>
-        <v>2.3916736446666675</v>
+        <v>1.1406670413333302</v>
       </c>
       <c r="G52">
         <f>K47</f>
-        <v>6.0185494167213225</v>
+        <v>5.3713920652565088</v>
       </c>
       <c r="H52">
         <f>L47</f>
@@ -5303,6 +6988,9 @@
       <c r="B145" t="s">
         <v>34</v>
       </c>
+      <c r="C145" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
@@ -5566,6 +7254,1298 @@
       <c r="I153">
         <f t="shared" si="26"/>
         <v>0.67729446973343843</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>56</v>
+      </c>
+      <c r="B172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>114.279031754</v>
+      </c>
+      <c r="C174">
+        <v>103.74212265</v>
+      </c>
+      <c r="D174">
+        <v>95.014095306399994</v>
+      </c>
+      <c r="E174">
+        <f>AVERAGE(B174:D174)/1000</f>
+        <v>0.1043450832368</v>
+      </c>
+      <c r="F174">
+        <f>STDEV(B174:D174)/SQRT(3)/1000</f>
+        <v>5.5694737987366594E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>38</v>
+      </c>
+      <c r="B175">
+        <v>101.384878159</v>
+      </c>
+      <c r="C175">
+        <v>132.87186622600001</v>
+      </c>
+      <c r="D175">
+        <v>102.76484489400001</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ref="E175:E180" si="27">AVERAGE(B175:D175)/1000</f>
+        <v>0.11234052975966667</v>
+      </c>
+      <c r="F175">
+        <f t="shared" ref="F175:F180" si="28">STDEV(B175:D175)/SQRT(3)/1000</f>
+        <v>1.0273394600743644E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176">
+        <v>98.153114318799993</v>
+      </c>
+      <c r="C176">
+        <v>119.008779526</v>
+      </c>
+      <c r="D176">
+        <v>180.45783042900001</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="27"/>
+        <v>0.13253990809126664</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="28"/>
+        <v>2.4703813158312819E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>51</v>
+      </c>
+      <c r="B177">
+        <v>123.316049576</v>
+      </c>
+      <c r="C177">
+        <v>166.17298126200001</v>
+      </c>
+      <c r="D177">
+        <v>91.897964477499997</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="27"/>
+        <v>0.12712899843850001</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="28"/>
+        <v>2.152594143396494E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178">
+        <v>914.60013389599999</v>
+      </c>
+      <c r="C178">
+        <v>932.53397941599997</v>
+      </c>
+      <c r="D178">
+        <v>900.24399757399999</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="27"/>
+        <v>0.9157927036286666</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="28"/>
+        <v>9.3403675652982479E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <v>656.357049942</v>
+      </c>
+      <c r="C179">
+        <v>659.560918808</v>
+      </c>
+      <c r="D179">
+        <v>572.02696800199999</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="27"/>
+        <v>0.62931497891733346</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="28"/>
+        <v>2.8658933103566767E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180">
+        <v>962.30006218000005</v>
+      </c>
+      <c r="C180">
+        <v>1027.0538330100001</v>
+      </c>
+      <c r="D180">
+        <v>979.86888885500002</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="27"/>
+        <v>0.98974092801500002</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="28"/>
+        <v>1.9333525088633563E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" t="s">
+        <v>58</v>
+      </c>
+      <c r="F198" t="s">
+        <v>33</v>
+      </c>
+      <c r="J198" t="s">
+        <v>61</v>
+      </c>
+      <c r="K198" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>48.363924026500001</v>
+      </c>
+      <c r="C199">
+        <v>47.490835189800002</v>
+      </c>
+      <c r="D199">
+        <v>51.856994628899997</v>
+      </c>
+      <c r="E199">
+        <f>AVERAGE(B199:D199)/1000</f>
+        <v>4.9237251281733334E-2</v>
+      </c>
+      <c r="F199">
+        <f>STDEV(B199:D199)/SQRT(3)/1000</f>
+        <v>1.3338993506458844E-3</v>
+      </c>
+      <c r="G199">
+        <v>97.549915313699998</v>
+      </c>
+      <c r="H199">
+        <v>98.052978515600003</v>
+      </c>
+      <c r="I199">
+        <v>108.912944794</v>
+      </c>
+      <c r="J199">
+        <f>AVERAGE(G199:I199)/1000</f>
+        <v>0.10150527954109999</v>
+      </c>
+      <c r="K199">
+        <f>STDEV(G199:I199)/SQRT(3)/1000</f>
+        <v>3.7066785006050441E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>789.75200653100001</v>
+      </c>
+      <c r="C200">
+        <v>603.960037231</v>
+      </c>
+      <c r="D200">
+        <v>835.76416969299999</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ref="E200:E209" si="29">AVERAGE(B200:D200)/1000</f>
+        <v>0.74315873781833341</v>
+      </c>
+      <c r="F200">
+        <f t="shared" ref="F200:F209" si="30">STDEV(B200:D200)/SQRT(3)/1000</f>
+        <v>7.0855459619362127E-2</v>
+      </c>
+      <c r="G200">
+        <v>667.44399070700001</v>
+      </c>
+      <c r="H200">
+        <v>672.64294624299998</v>
+      </c>
+      <c r="I200">
+        <v>980.111122131</v>
+      </c>
+      <c r="J200">
+        <f t="shared" ref="J200:J209" si="31">AVERAGE(G200:I200)/1000</f>
+        <v>0.77339935302699991</v>
+      </c>
+      <c r="K200">
+        <f t="shared" ref="K200:K209" si="32">STDEV(G200:I200)/SQRT(3)/1000</f>
+        <v>0.10336678044588857</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201">
+        <v>1774.2679119100001</v>
+      </c>
+      <c r="C201">
+        <v>2060.5449676500002</v>
+      </c>
+      <c r="D201">
+        <v>2144.0689563800001</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="29"/>
+        <v>1.9929606119800003</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="30"/>
+        <v>0.11197311726670908</v>
+      </c>
+      <c r="G201">
+        <v>1407.85193443</v>
+      </c>
+      <c r="H201">
+        <v>1021.1212635000001</v>
+      </c>
+      <c r="I201">
+        <v>1694.1728591900001</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="31"/>
+        <v>1.3743820190400002</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="32"/>
+        <v>0.19501263979750447</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202">
+        <v>4482.3908805800002</v>
+      </c>
+      <c r="C202">
+        <v>1775.8603095999999</v>
+      </c>
+      <c r="D202">
+        <v>1379.1191577899999</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="29"/>
+        <v>2.5457901159899996</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="30"/>
+        <v>0.97505004597077183</v>
+      </c>
+      <c r="G202">
+        <v>2153.1028747599998</v>
+      </c>
+      <c r="H202">
+        <v>1275.0589847599999</v>
+      </c>
+      <c r="I202">
+        <v>1172.1079349500001</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="31"/>
+        <v>1.533423264823333</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="32"/>
+        <v>0.31126186397345579</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>2229.7339439399998</v>
+      </c>
+      <c r="C203">
+        <v>3347.4318981199999</v>
+      </c>
+      <c r="D203">
+        <v>2445.1770782499998</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="29"/>
+        <v>2.6741143067699999</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="30"/>
+        <v>0.34235525902506247</v>
+      </c>
+      <c r="G203">
+        <v>2062.7689361600001</v>
+      </c>
+      <c r="H203">
+        <v>1619.4930076600001</v>
+      </c>
+      <c r="I203">
+        <v>1792.99902916</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="31"/>
+        <v>1.8250869909933334</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="32"/>
+        <v>0.1289646142266001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>5106.2538623800001</v>
+      </c>
+      <c r="C204">
+        <v>2770.7378864299999</v>
+      </c>
+      <c r="D204">
+        <v>2643.7089443199998</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="29"/>
+        <v>3.5069002310433333</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="30"/>
+        <v>0.80051714880355773</v>
+      </c>
+      <c r="G204">
+        <v>2459.8202705399999</v>
+      </c>
+      <c r="H204">
+        <v>3067.4569606800001</v>
+      </c>
+      <c r="I204">
+        <v>1778.9580822</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="31"/>
+        <v>2.4354117711400001</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="32"/>
+        <v>0.37215774930051543</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>3179.2449951200001</v>
+      </c>
+      <c r="C205">
+        <v>6457.0040702799997</v>
+      </c>
+      <c r="D205">
+        <v>2686.07115746</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="29"/>
+        <v>4.1074400742866661</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="30"/>
+        <v>1.183376995014578</v>
+      </c>
+      <c r="G205">
+        <v>3351.7098426799998</v>
+      </c>
+      <c r="H205">
+        <v>2989.20798302</v>
+      </c>
+      <c r="I205">
+        <v>2221.48704529</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="31"/>
+        <v>2.8541349569966665</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="32"/>
+        <v>0.33318385050116339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>7</v>
+      </c>
+      <c r="B206">
+        <v>3589.7221565200002</v>
+      </c>
+      <c r="C206">
+        <v>6470.1030254400002</v>
+      </c>
+      <c r="D206">
+        <v>3066.79797173</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="29"/>
+        <v>4.3755410512300008</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="30"/>
+        <v>1.058104409406186</v>
+      </c>
+      <c r="G206">
+        <v>3069.5970058399998</v>
+      </c>
+      <c r="H206">
+        <v>2407.9039096800002</v>
+      </c>
+      <c r="I206">
+        <v>3144.2298889200001</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="31"/>
+        <v>2.8739102681466671</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="32"/>
+        <v>0.23399712349209667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>6582.2219848599998</v>
+      </c>
+      <c r="C207">
+        <v>3286.5021228800001</v>
+      </c>
+      <c r="D207">
+        <v>6231.9288253799996</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="29"/>
+        <v>5.3668843110400006</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="30"/>
+        <v>1.0450947103818962</v>
+      </c>
+      <c r="G207">
+        <v>3653.26189995</v>
+      </c>
+      <c r="H207">
+        <v>3822.00479507</v>
+      </c>
+      <c r="I207">
+        <v>2607.4852943400001</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="31"/>
+        <v>3.360917329786667</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="32"/>
+        <v>0.37985234639762711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>4889.5130157499998</v>
+      </c>
+      <c r="C208">
+        <v>4276.75080299</v>
+      </c>
+      <c r="D208">
+        <v>7322.1373557999996</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="29"/>
+        <v>5.4961337248466657</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="30"/>
+        <v>0.92997962836786563</v>
+      </c>
+      <c r="G208">
+        <v>4791.8441295599996</v>
+      </c>
+      <c r="H208">
+        <v>2993.8719272600001</v>
+      </c>
+      <c r="I208">
+        <v>3133.2650184600002</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="31"/>
+        <v>3.6396603584266667</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="32"/>
+        <v>0.57749550945320283</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>10</v>
+      </c>
+      <c r="B209">
+        <v>5727.2410392800002</v>
+      </c>
+      <c r="C209">
+        <v>4187.9298687</v>
+      </c>
+      <c r="D209">
+        <v>9344.0437316900006</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="29"/>
+        <v>6.4197382132233329</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="30"/>
+        <v>1.5281843032358198</v>
+      </c>
+      <c r="G209">
+        <v>3333.7211608900002</v>
+      </c>
+      <c r="H209">
+        <v>4955.7271003699998</v>
+      </c>
+      <c r="I209">
+        <v>3146.6078758200001</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="31"/>
+        <v>3.8120187123600004</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="32"/>
+        <v>0.57439954241095426</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="E211" t="s">
+        <v>63</v>
+      </c>
+      <c r="F211">
+        <f>MAX(F199:F209)</f>
+        <v>1.5281843032358198</v>
+      </c>
+      <c r="J211" t="s">
+        <v>63</v>
+      </c>
+      <c r="K211">
+        <f>MAX(K199:K209)</f>
+        <v>0.57749550945320283</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" t="s">
+        <v>58</v>
+      </c>
+      <c r="F222" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>922.28412628199999</v>
+      </c>
+      <c r="C223">
+        <v>750.16880035400004</v>
+      </c>
+      <c r="D223">
+        <v>896.02088928199998</v>
+      </c>
+      <c r="E223">
+        <f>AVERAGE(B223:D223)/1000</f>
+        <v>0.85615793863933332</v>
+      </c>
+      <c r="F223">
+        <f>STDEV(B223:D223)/SQRT(3)/1000</f>
+        <v>5.353414013592999E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224">
+        <v>10</v>
+      </c>
+      <c r="B224">
+        <v>1086.11702919</v>
+      </c>
+      <c r="C224">
+        <v>731.88519477800003</v>
+      </c>
+      <c r="D224">
+        <v>747.18689918500002</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ref="E224:E228" si="33">AVERAGE(B224:D224)/1000</f>
+        <v>0.85506304105100017</v>
+      </c>
+      <c r="F224">
+        <f t="shared" ref="F224:F228" si="34">STDEV(B224:D224)/SQRT(3)/1000</f>
+        <v>0.11561141035907364</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>20</v>
+      </c>
+      <c r="B225">
+        <v>1007.97986984</v>
+      </c>
+      <c r="C225">
+        <v>711.33995056200001</v>
+      </c>
+      <c r="D225">
+        <v>701.05314254799998</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="33"/>
+        <v>0.8067909876499999</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="34"/>
+        <v>0.10063826201206257</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>30</v>
+      </c>
+      <c r="B226">
+        <v>957.18574523899997</v>
+      </c>
+      <c r="C226">
+        <v>720.86310386699995</v>
+      </c>
+      <c r="D226">
+        <v>1004.43387032</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="33"/>
+        <v>0.89416090647533342</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="34"/>
+        <v>8.7715815036542841E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>40</v>
+      </c>
+      <c r="B227">
+        <v>1057.0878982500001</v>
+      </c>
+      <c r="C227">
+        <v>759.24420356799999</v>
+      </c>
+      <c r="D227">
+        <v>718.93191337600001</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="33"/>
+        <v>0.84508800506466664</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="34"/>
+        <v>0.1066368232492506</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>50</v>
+      </c>
+      <c r="B228">
+        <v>1238.3508682300001</v>
+      </c>
+      <c r="C228">
+        <v>751.60098075899998</v>
+      </c>
+      <c r="D228">
+        <v>844.99621391300002</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="33"/>
+        <v>0.94498268763399995</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="34"/>
+        <v>0.14914124673569018</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>114.279031754</v>
+      </c>
+      <c r="C249">
+        <v>103.74212265</v>
+      </c>
+      <c r="D249">
+        <v>95.014095306399994</v>
+      </c>
+      <c r="E249">
+        <f>AVERAGE(B249:D249)/1000</f>
+        <v>0.1043450832368</v>
+      </c>
+      <c r="F249">
+        <f>STDEV(B249:D249)/SQRT(3)/1000</f>
+        <v>5.5694737987366594E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>10</v>
+      </c>
+      <c r="B250">
+        <v>98.383903503400006</v>
+      </c>
+      <c r="C250">
+        <v>98.827123642000004</v>
+      </c>
+      <c r="D250">
+        <v>101.709842682</v>
+      </c>
+      <c r="E250">
+        <f t="shared" ref="E250:E253" si="35">AVERAGE(B250:D250)/1000</f>
+        <v>9.9640289942466667E-2</v>
+      </c>
+      <c r="F250">
+        <f t="shared" ref="F250:F253" si="36">STDEV(B250:D250)/SQRT(3)/1000</f>
+        <v>1.0426564517451865E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>100</v>
+      </c>
+      <c r="B251">
+        <v>97.009897232100002</v>
+      </c>
+      <c r="C251">
+        <v>96.698999404899993</v>
+      </c>
+      <c r="D251">
+        <v>97.816944122300001</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="35"/>
+        <v>9.7175280253100016E-2</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="36"/>
+        <v>3.3314849317632103E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>1000</v>
+      </c>
+      <c r="B252">
+        <v>103.260993958</v>
+      </c>
+      <c r="C252">
+        <v>99.728107452399996</v>
+      </c>
+      <c r="D252">
+        <v>99.290132522600004</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="35"/>
+        <v>0.10075974464433333</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="36"/>
+        <v>1.256999284887334E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>10000</v>
+      </c>
+      <c r="B253">
+        <v>99.737167358400001</v>
+      </c>
+      <c r="C253">
+        <v>99.381923675500005</v>
+      </c>
+      <c r="D253">
+        <v>99.642992019700003</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="35"/>
+        <v>9.9587361017866666E-2</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="36"/>
+        <v>1.0625539175938866E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>914.60013389599999</v>
+      </c>
+      <c r="C258">
+        <v>932.53397941599997</v>
+      </c>
+      <c r="D258">
+        <v>900.24399757399999</v>
+      </c>
+      <c r="E258">
+        <f>AVERAGE(B258:D258)/1000</f>
+        <v>0.9157927036286666</v>
+      </c>
+      <c r="F258">
+        <f>STDEV(B258:D258)/SQRT(3)/1000</f>
+        <v>9.3403675652982479E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>10</v>
+      </c>
+      <c r="B259">
+        <v>994.54593658399995</v>
+      </c>
+      <c r="C259">
+        <v>1047.7440357200001</v>
+      </c>
+      <c r="D259">
+        <v>959.51604843099994</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ref="E259:E262" si="37">AVERAGE(B259:D259)/1000</f>
+        <v>1.0006020069116666</v>
+      </c>
+      <c r="F259">
+        <f t="shared" ref="F259:F262" si="38">STDEV(B259:D259)/SQRT(3)/1000</f>
+        <v>2.5648595972796284E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>100</v>
+      </c>
+      <c r="B260">
+        <v>980.07488250699998</v>
+      </c>
+      <c r="C260">
+        <v>943.59779357900004</v>
+      </c>
+      <c r="D260">
+        <v>1063.24601173</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="37"/>
+        <v>0.99563956260533326</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="38"/>
+        <v>3.5405359653588736E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>1000</v>
+      </c>
+      <c r="B261">
+        <v>1481.80508614</v>
+      </c>
+      <c r="C261">
+        <v>1409.92093086</v>
+      </c>
+      <c r="D261">
+        <v>1552.9880523700001</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="37"/>
+        <v>1.4815713564566668</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="38"/>
+        <v>4.130008590169814E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>10000</v>
+      </c>
+      <c r="B262">
+        <v>9651.71813965</v>
+      </c>
+      <c r="C262">
+        <v>8619.0459728200003</v>
+      </c>
+      <c r="D262">
+        <v>8301.1929988899992</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="37"/>
+        <v>8.8573190371200017</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="38"/>
+        <v>0.40766002127360523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>656.357049942</v>
+      </c>
+      <c r="C267">
+        <v>659.560918808</v>
+      </c>
+      <c r="D267">
+        <v>572.02696800199999</v>
+      </c>
+      <c r="E267">
+        <f>AVERAGE(B267:D267)/1000</f>
+        <v>0.62931497891733346</v>
+      </c>
+      <c r="F267">
+        <f>STDEV(B267:D267)/SQRT(3)/1000</f>
+        <v>2.8658933103566767E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>10</v>
+      </c>
+      <c r="B268">
+        <v>671.36025428799996</v>
+      </c>
+      <c r="C268">
+        <v>619.34924125700002</v>
+      </c>
+      <c r="D268">
+        <v>657.73296356200001</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ref="E268:E271" si="39">AVERAGE(B268:D268)/1000</f>
+        <v>0.6494808197023334</v>
+      </c>
+      <c r="F268">
+        <f t="shared" ref="F268:F271" si="40">STDEV(B268:D268)/SQRT(3)/1000</f>
+        <v>1.5570910675981537E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>100</v>
+      </c>
+      <c r="B269">
+        <v>577.34012603799999</v>
+      </c>
+      <c r="C269">
+        <v>625.603914261</v>
+      </c>
+      <c r="D269">
+        <v>621.44088745099998</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="39"/>
+        <v>0.60812830924999994</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="40"/>
+        <v>1.5440929021888048E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>1000</v>
+      </c>
+      <c r="B270">
+        <v>897.25494384800004</v>
+      </c>
+      <c r="C270">
+        <v>876.03282928500005</v>
+      </c>
+      <c r="D270">
+        <v>868.07703971900003</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="39"/>
+        <v>0.88045493761733329</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="40"/>
+        <v>8.708306454518925E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>10000</v>
+      </c>
+      <c r="B271">
+        <v>4608.3500385300003</v>
+      </c>
+      <c r="C271">
+        <v>4465.2738571199998</v>
+      </c>
+      <c r="D271">
+        <v>4445.6410408000002</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="39"/>
+        <v>4.506421645483333</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="40"/>
+        <v>5.1278357523652465E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>65</v>
+      </c>
+      <c r="B274">
+        <f>E249</f>
+        <v>0.1043450832368</v>
+      </c>
+      <c r="C274">
+        <f>E258</f>
+        <v>0.9157927036286666</v>
+      </c>
+      <c r="D274">
+        <f>E267</f>
+        <v>0.62931497891733346</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>10</v>
+      </c>
+      <c r="B275">
+        <f t="shared" ref="B275:B278" si="41">E250</f>
+        <v>9.9640289942466667E-2</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ref="C275:C278" si="42">E259</f>
+        <v>1.0006020069116666</v>
+      </c>
+      <c r="D275">
+        <f t="shared" ref="D275:D278" si="43">E268</f>
+        <v>0.6494808197023334</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>100</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="41"/>
+        <v>9.7175280253100016E-2</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="42"/>
+        <v>0.99563956260533326</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="43"/>
+        <v>0.60812830924999994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>1000</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="41"/>
+        <v>0.10075974464433333</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="42"/>
+        <v>1.4815713564566668</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="43"/>
+        <v>0.88045493761733329</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>10000</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="41"/>
+        <v>9.9587361017866666E-2</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="42"/>
+        <v>8.8573190371200017</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="43"/>
+        <v>4.506421645483333</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="73">
   <si>
     <t>guestbook</t>
   </si>
@@ -218,6 +218,27 @@
   <si>
     <t>0/1</t>
   </si>
+  <si>
+    <t>batch-publish</t>
+  </si>
+  <si>
+    <t>eager-overhead</t>
+  </si>
+  <si>
+    <t>percentage inc.</t>
+  </si>
+  <si>
+    <t>coursebuilder</t>
+  </si>
+  <si>
+    <t>failure-case</t>
+  </si>
+  <si>
+    <t>guestbook-fail</t>
+  </si>
+  <si>
+    <t>rest-app-fail</t>
+  </si>
 </sst>
 </file>
 
@@ -265,8 +286,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -381,7 +430,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -437,6 +486,20 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -492,6 +555,20 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,11 +689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129465816"/>
-        <c:axId val="-2085009560"/>
+        <c:axId val="-2099420024"/>
+        <c:axId val="-2097285224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129465816"/>
+        <c:axId val="-2099420024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085009560"/>
+        <c:crossAx val="-2097285224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085009560"/>
+        <c:axId val="-2097285224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -684,7 +761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129465816"/>
+        <c:crossAx val="-2099420024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,10 +828,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$174:$F$181</c:f>
+                <c:f>Sheet1!$F$174:$F$182</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>0.00556947379873666</c:v>
                   </c:pt>
@@ -768,12 +845,15 @@
                     <c:v>0.0215259414339649</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0.00119452413214751</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>0.00934036756529825</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>0.0286589331035668</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>0.0193335250886336</c:v>
                   </c:pt>
                 </c:numCache>
@@ -781,10 +861,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$F$174:$F$181</c:f>
+                <c:f>Sheet1!$F$174:$F$182</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="9"/>
                   <c:pt idx="0">
                     <c:v>0.00556947379873666</c:v>
                   </c:pt>
@@ -798,12 +878,15 @@
                     <c:v>0.0215259414339649</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>0.00119452413214751</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>0.00934036756529825</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>0.0286589331035668</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>0.0193335250886336</c:v>
                   </c:pt>
                 </c:numCache>
@@ -812,9 +895,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$174:$A$180</c:f>
+              <c:f>Sheet1!$A$174:$A$181</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>guestbook</c:v>
                 </c:pt>
@@ -828,12 +911,15 @@
                   <c:v>hawkeye</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>coursebuilder</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>rest-app</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>dependent-app</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>dependent-app-2</c:v>
                 </c:pt>
               </c:strCache>
@@ -841,10 +927,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$174:$E$180</c:f>
+              <c:f>Sheet1!$E$174:$E$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1043450832368</c:v>
                 </c:pt>
@@ -858,12 +944,15 @@
                   <c:v>0.1271289984385</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.100741306940533</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.915792703628667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.629314978917333</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.989740928015</c:v>
                 </c:pt>
               </c:numCache>
@@ -879,11 +968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2099246920"/>
-        <c:axId val="-2102374440"/>
+        <c:axId val="-2100226712"/>
+        <c:axId val="-2100240216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099246920"/>
+        <c:axId val="-2100226712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102374440"/>
+        <c:crossAx val="-2100240216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -900,7 +989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102374440"/>
+        <c:axId val="-2100240216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -932,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099246920"/>
+        <c:crossAx val="-2100226712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +1090,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$223:$F$228</c:f>
+                <c:f>Sheet1!$F$224:$F$229</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1028,7 +1117,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$F$223:$F$228</c:f>
+                <c:f>Sheet1!$F$224:$F$229</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -1056,7 +1145,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$223:$A$228</c:f>
+              <c:f>Sheet1!$A$224:$A$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1083,7 +1172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$223:$E$228</c:f>
+              <c:f>Sheet1!$E$224:$E$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1120,11 +1209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099744888"/>
-        <c:axId val="-2112026760"/>
+        <c:axId val="-2093164648"/>
+        <c:axId val="-2100061048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099744888"/>
+        <c:axId val="-2093164648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112026760"/>
+        <c:crossAx val="-2100061048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1166,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112026760"/>
+        <c:axId val="-2100061048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099744888"/>
+        <c:crossAx val="-2093164648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,7 +1356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$198</c:f>
+              <c:f>Sheet1!$E$199</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1286,7 +1375,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$199:$F$209</c:f>
+                <c:f>Sheet1!$F$200:$F$210</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
@@ -1328,7 +1417,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$F$199:$F$209</c:f>
+                <c:f>Sheet1!$F$200:$F$210</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
@@ -1371,7 +1460,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$199:$A$209</c:f>
+              <c:f>Sheet1!$A$200:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1413,7 +1502,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$199:$E$209</c:f>
+              <c:f>Sheet1!$E$200:$E$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1460,7 +1549,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$198</c:f>
+              <c:f>Sheet1!$J$199</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1479,7 +1568,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$K$199:$K$209</c:f>
+                <c:f>Sheet1!$K$200:$K$210</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
@@ -1521,7 +1610,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$K$199:$K$209</c:f>
+                <c:f>Sheet1!$K$200:$K$210</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
@@ -1564,7 +1653,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$199:$A$209</c:f>
+              <c:f>Sheet1!$A$200:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1606,7 +1695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$199:$J$209</c:f>
+              <c:f>Sheet1!$J$200:$J$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1658,11 +1747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096351768"/>
-        <c:axId val="-2096460600"/>
+        <c:axId val="-2099695160"/>
+        <c:axId val="-2093899784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096351768"/>
+        <c:axId val="-2099695160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096460600"/>
+        <c:crossAx val="-2093899784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1699,7 +1788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096460600"/>
+        <c:axId val="-2093899784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096351768"/>
+        <c:crossAx val="-2099695160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1805,7 +1894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$273</c:f>
+              <c:f>Sheet1!$B$274</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1819,7 +1908,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$274:$A$278</c:f>
+              <c:f>Sheet1!$A$275:$A$279</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1842,7 +1931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$274:$B$278</c:f>
+              <c:f>Sheet1!$B$275:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1871,7 +1960,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$273</c:f>
+              <c:f>Sheet1!$C$274</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,7 +1974,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$274:$A$278</c:f>
+              <c:f>Sheet1!$A$275:$A$279</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1908,7 +1997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$274:$C$278</c:f>
+              <c:f>Sheet1!$C$275:$C$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1937,7 +2026,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$273</c:f>
+              <c:f>Sheet1!$D$274</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1951,7 +2040,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$274:$A$278</c:f>
+              <c:f>Sheet1!$A$275:$A$279</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1974,7 +2063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$274:$D$278</c:f>
+              <c:f>Sheet1!$D$275:$D$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2008,11 +2097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101221992"/>
-        <c:axId val="-2095086904"/>
+        <c:axId val="-2112123464"/>
+        <c:axId val="-2093906792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101221992"/>
+        <c:axId val="-2112123464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095086904"/>
+        <c:crossAx val="-2093906792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2053,7 +2142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095086904"/>
+        <c:axId val="-2093906792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -2084,7 +2173,548 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101221992"/>
+        <c:crossAx val="-2112123464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs. Policy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$304</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>guestbook</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$305:$A$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$305:$B$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.100759744644333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.117412726084667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.102316697438533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125038703282667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.154468059539667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$304</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rest-app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$305:$A$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$305:$C$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.481571356456667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4864200751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.495039224623333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.553050994873333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.649154345193333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2085548120"/>
+        <c:axId val="-2084737560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2085548120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Policies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2084737560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2084737560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085548120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Overhead vs. Policy Count (Failure Case)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>guestbook</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$306:$A$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$306:$D$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0516750017802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0552096366882333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1030050913492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178239345550333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rest-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$306:$A$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$306:$E$309</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.067999680837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0857466856637666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.116069634755667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.194067955016667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2091762792"/>
+        <c:axId val="-2102934408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2091762792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Policies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102934408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2102934408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091762792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,11 +2841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2098119288"/>
-        <c:axId val="-2100325432"/>
+        <c:axId val="-2085278360"/>
+        <c:axId val="-2085304584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098119288"/>
+        <c:axId val="-2085278360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100325432"/>
+        <c:crossAx val="-2085304584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100325432"/>
+        <c:axId val="-2085304584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2288,7 +2918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098119288"/>
+        <c:crossAx val="-2085278360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2552,11 +3182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096495720"/>
-        <c:axId val="-2107662248"/>
+        <c:axId val="-2104291272"/>
+        <c:axId val="-2104284760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096495720"/>
+        <c:axId val="-2104291272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +3214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107662248"/>
+        <c:crossAx val="-2104284760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +3222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107662248"/>
+        <c:axId val="-2104284760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,7 +3252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096495720"/>
+        <c:crossAx val="-2104291272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2894,11 +3524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101207560"/>
-        <c:axId val="-2097048424"/>
+        <c:axId val="-2096836088"/>
+        <c:axId val="-2098014904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101207560"/>
+        <c:axId val="-2096836088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +3557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097048424"/>
+        <c:crossAx val="-2098014904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +3565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097048424"/>
+        <c:axId val="-2098014904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2971,7 +3601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101207560"/>
+        <c:crossAx val="-2096836088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3303,11 +3933,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2101172360"/>
-        <c:axId val="-2097512008"/>
+        <c:axId val="-2098026760"/>
+        <c:axId val="-2096143448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101172360"/>
+        <c:axId val="-2098026760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097512008"/>
+        <c:crossAx val="-2096143448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3324,7 +3954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097512008"/>
+        <c:axId val="-2096143448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3355,7 +3985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101172360"/>
+        <c:crossAx val="-2098026760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3613,11 +4243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100611288"/>
-        <c:axId val="-2097213160"/>
+        <c:axId val="-2101914248"/>
+        <c:axId val="-2102186168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100611288"/>
+        <c:axId val="-2101914248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +4276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097213160"/>
+        <c:crossAx val="-2102186168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3654,7 +4284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097213160"/>
+        <c:axId val="-2102186168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3690,7 +4320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100611288"/>
+        <c:crossAx val="-2101914248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3890,11 +4520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096169096"/>
-        <c:axId val="-2097703976"/>
+        <c:axId val="-2109379208"/>
+        <c:axId val="-2101377016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096169096"/>
+        <c:axId val="-2109379208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,7 +4553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097703976"/>
+        <c:crossAx val="-2101377016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3931,7 +4561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097703976"/>
+        <c:axId val="-2101377016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3962,7 +4592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096169096"/>
+        <c:crossAx val="-2109379208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4080,11 +4710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2096751304"/>
-        <c:axId val="-2100565288"/>
+        <c:axId val="-2099782504"/>
+        <c:axId val="-2099011976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096751304"/>
+        <c:axId val="-2099782504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100565288"/>
+        <c:crossAx val="-2099011976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4101,7 +4731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100565288"/>
+        <c:axId val="-2099011976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -4113,7 +4743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096751304"/>
+        <c:crossAx val="-2099782504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4243,11 +4873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2097445288"/>
-        <c:axId val="-2097302936"/>
+        <c:axId val="-2098883096"/>
+        <c:axId val="-2099400024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097445288"/>
+        <c:axId val="-2098883096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4256,7 +4886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097302936"/>
+        <c:crossAx val="-2099400024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4264,7 +4894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097302936"/>
+        <c:axId val="-2099400024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -4277,7 +4907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097445288"/>
+        <c:crossAx val="-2098883096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4576,7 +5206,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4600,13 +5230,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4630,13 +5260,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4660,13 +5290,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4681,6 +5311,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5011,10 +5701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N278"/>
+  <dimension ref="A1:N329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="T307" sqref="T307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7311,11 +8001,11 @@
         <v>102.76484489400001</v>
       </c>
       <c r="E175">
-        <f t="shared" ref="E175:E180" si="27">AVERAGE(B175:D175)/1000</f>
+        <f t="shared" ref="E175:E181" si="27">AVERAGE(B175:D175)/1000</f>
         <v>0.11234052975966667</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175:F180" si="28">STDEV(B175:D175)/SQRT(3)/1000</f>
+        <f t="shared" ref="F175:F181" si="28">STDEV(B175:D175)/SQRT(3)/1000</f>
         <v>1.0273394600743644E-2</v>
       </c>
     </row>
@@ -7365,1187 +8055,1873 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B178">
-        <v>914.60013389599999</v>
+        <v>102.53500938400001</v>
       </c>
       <c r="C178">
-        <v>932.53397941599997</v>
+        <v>101.211071014</v>
       </c>
       <c r="D178">
-        <v>900.24399757399999</v>
+        <v>98.4778404236</v>
       </c>
       <c r="E178">
         <f t="shared" si="27"/>
-        <v>0.9157927036286666</v>
+        <v>0.10074130694053333</v>
       </c>
       <c r="F178">
         <f t="shared" si="28"/>
-        <v>9.3403675652982479E-3</v>
+        <v>1.1945241321475136E-3</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B179">
-        <v>656.357049942</v>
+        <v>914.60013389599999</v>
       </c>
       <c r="C179">
-        <v>659.560918808</v>
+        <v>932.53397941599997</v>
       </c>
       <c r="D179">
-        <v>572.02696800199999</v>
+        <v>900.24399757399999</v>
       </c>
       <c r="E179">
         <f t="shared" si="27"/>
-        <v>0.62931497891733346</v>
+        <v>0.9157927036286666</v>
       </c>
       <c r="F179">
         <f t="shared" si="28"/>
-        <v>2.8658933103566767E-2</v>
+        <v>9.3403675652982479E-3</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B180">
-        <v>962.30006218000005</v>
+        <v>656.357049942</v>
       </c>
       <c r="C180">
-        <v>1027.0538330100001</v>
+        <v>659.560918808</v>
       </c>
       <c r="D180">
-        <v>979.86888885500002</v>
+        <v>572.02696800199999</v>
       </c>
       <c r="E180">
         <f t="shared" si="27"/>
-        <v>0.98974092801500002</v>
+        <v>0.62931497891733346</v>
       </c>
       <c r="F180">
         <f t="shared" si="28"/>
+        <v>2.8658933103566767E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181">
+        <v>962.30006218000005</v>
+      </c>
+      <c r="C181">
+        <v>1027.0538330100001</v>
+      </c>
+      <c r="D181">
+        <v>979.86888885500002</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="27"/>
+        <v>0.98974092801500002</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="28"/>
         <v>1.9333525088633563E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>16</v>
-      </c>
-      <c r="B196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B197" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
         <v>15</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E199" t="s">
         <v>58</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F199" t="s">
         <v>33</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J199" t="s">
         <v>61</v>
       </c>
-      <c r="K198" t="s">
+      <c r="K199" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>0</v>
-      </c>
-      <c r="B199">
-        <v>48.363924026500001</v>
-      </c>
-      <c r="C199">
-        <v>47.490835189800002</v>
-      </c>
-      <c r="D199">
-        <v>51.856994628899997</v>
-      </c>
-      <c r="E199">
-        <f>AVERAGE(B199:D199)/1000</f>
-        <v>4.9237251281733334E-2</v>
-      </c>
-      <c r="F199">
-        <f>STDEV(B199:D199)/SQRT(3)/1000</f>
-        <v>1.3338993506458844E-3</v>
-      </c>
-      <c r="G199">
-        <v>97.549915313699998</v>
-      </c>
-      <c r="H199">
-        <v>98.052978515600003</v>
-      </c>
-      <c r="I199">
-        <v>108.912944794</v>
-      </c>
-      <c r="J199">
-        <f>AVERAGE(G199:I199)/1000</f>
-        <v>0.10150527954109999</v>
-      </c>
-      <c r="K199">
-        <f>STDEV(G199:I199)/SQRT(3)/1000</f>
-        <v>3.7066785006050441E-3</v>
       </c>
     </row>
     <row r="200" spans="1:11">
       <c r="A200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200">
-        <v>789.75200653100001</v>
+        <v>48.363924026500001</v>
       </c>
       <c r="C200">
-        <v>603.960037231</v>
+        <v>47.490835189800002</v>
       </c>
       <c r="D200">
-        <v>835.76416969299999</v>
+        <v>51.856994628899997</v>
       </c>
       <c r="E200">
-        <f t="shared" ref="E200:E209" si="29">AVERAGE(B200:D200)/1000</f>
-        <v>0.74315873781833341</v>
+        <f>AVERAGE(B200:D200)/1000</f>
+        <v>4.9237251281733334E-2</v>
       </c>
       <c r="F200">
-        <f t="shared" ref="F200:F209" si="30">STDEV(B200:D200)/SQRT(3)/1000</f>
-        <v>7.0855459619362127E-2</v>
+        <f>STDEV(B200:D200)/SQRT(3)/1000</f>
+        <v>1.3338993506458844E-3</v>
       </c>
       <c r="G200">
-        <v>667.44399070700001</v>
+        <v>97.549915313699998</v>
       </c>
       <c r="H200">
-        <v>672.64294624299998</v>
+        <v>98.052978515600003</v>
       </c>
       <c r="I200">
-        <v>980.111122131</v>
+        <v>108.912944794</v>
       </c>
       <c r="J200">
-        <f t="shared" ref="J200:J209" si="31">AVERAGE(G200:I200)/1000</f>
-        <v>0.77339935302699991</v>
+        <f>AVERAGE(G200:I200)/1000</f>
+        <v>0.10150527954109999</v>
       </c>
       <c r="K200">
-        <f t="shared" ref="K200:K209" si="32">STDEV(G200:I200)/SQRT(3)/1000</f>
-        <v>0.10336678044588857</v>
+        <f>STDEV(G200:I200)/SQRT(3)/1000</f>
+        <v>3.7066785006050441E-3</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>789.75200653100001</v>
+      </c>
+      <c r="C201">
+        <v>603.960037231</v>
+      </c>
+      <c r="D201">
+        <v>835.76416969299999</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ref="E201:E210" si="29">AVERAGE(B201:D201)/1000</f>
+        <v>0.74315873781833341</v>
+      </c>
+      <c r="F201">
+        <f t="shared" ref="F201:F210" si="30">STDEV(B201:D201)/SQRT(3)/1000</f>
+        <v>7.0855459619362127E-2</v>
+      </c>
+      <c r="G201">
+        <v>667.44399070700001</v>
+      </c>
+      <c r="H201">
+        <v>672.64294624299998</v>
+      </c>
+      <c r="I201">
+        <v>980.111122131</v>
+      </c>
+      <c r="J201">
+        <f t="shared" ref="J201:J210" si="31">AVERAGE(G201:I201)/1000</f>
+        <v>0.77339935302699991</v>
+      </c>
+      <c r="K201">
+        <f t="shared" ref="K201:K210" si="32">STDEV(G201:I201)/SQRT(3)/1000</f>
+        <v>0.10336678044588857</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
         <v>2</v>
       </c>
-      <c r="B201">
+      <c r="B202">
         <v>1774.2679119100001</v>
       </c>
-      <c r="C201">
+      <c r="C202">
         <v>2060.5449676500002</v>
       </c>
-      <c r="D201">
+      <c r="D202">
         <v>2144.0689563800001</v>
       </c>
-      <c r="E201">
+      <c r="E202">
         <f t="shared" si="29"/>
         <v>1.9929606119800003</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <f t="shared" si="30"/>
         <v>0.11197311726670908</v>
       </c>
-      <c r="G201">
+      <c r="G202">
         <v>1407.85193443</v>
       </c>
-      <c r="H201">
+      <c r="H202">
         <v>1021.1212635000001</v>
       </c>
-      <c r="I201">
+      <c r="I202">
         <v>1694.1728591900001</v>
       </c>
-      <c r="J201">
+      <c r="J202">
         <f t="shared" si="31"/>
         <v>1.3743820190400002</v>
       </c>
-      <c r="K201">
+      <c r="K202">
         <f t="shared" si="32"/>
         <v>0.19501263979750447</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
+    <row r="203" spans="1:11">
+      <c r="A203">
         <v>3</v>
       </c>
-      <c r="B202">
+      <c r="B203">
         <v>4482.3908805800002</v>
       </c>
-      <c r="C202">
+      <c r="C203">
         <v>1775.8603095999999</v>
       </c>
-      <c r="D202">
+      <c r="D203">
         <v>1379.1191577899999</v>
       </c>
-      <c r="E202">
+      <c r="E203">
         <f t="shared" si="29"/>
         <v>2.5457901159899996</v>
       </c>
-      <c r="F202">
+      <c r="F203">
         <f t="shared" si="30"/>
         <v>0.97505004597077183</v>
       </c>
-      <c r="G202">
+      <c r="G203">
         <v>2153.1028747599998</v>
       </c>
-      <c r="H202">
+      <c r="H203">
         <v>1275.0589847599999</v>
       </c>
-      <c r="I202">
+      <c r="I203">
         <v>1172.1079349500001</v>
       </c>
-      <c r="J202">
+      <c r="J203">
         <f t="shared" si="31"/>
         <v>1.533423264823333</v>
       </c>
-      <c r="K202">
+      <c r="K203">
         <f t="shared" si="32"/>
         <v>0.31126186397345579</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
+    <row r="204" spans="1:11">
+      <c r="A204">
         <v>4</v>
       </c>
-      <c r="B203">
+      <c r="B204">
         <v>2229.7339439399998</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <v>3347.4318981199999</v>
       </c>
-      <c r="D203">
+      <c r="D204">
         <v>2445.1770782499998</v>
       </c>
-      <c r="E203">
+      <c r="E204">
         <f t="shared" si="29"/>
         <v>2.6741143067699999</v>
       </c>
-      <c r="F203">
+      <c r="F204">
         <f t="shared" si="30"/>
         <v>0.34235525902506247</v>
       </c>
-      <c r="G203">
+      <c r="G204">
         <v>2062.7689361600001</v>
       </c>
-      <c r="H203">
+      <c r="H204">
         <v>1619.4930076600001</v>
       </c>
-      <c r="I203">
+      <c r="I204">
         <v>1792.99902916</v>
       </c>
-      <c r="J203">
+      <c r="J204">
         <f t="shared" si="31"/>
         <v>1.8250869909933334</v>
       </c>
-      <c r="K203">
+      <c r="K204">
         <f t="shared" si="32"/>
         <v>0.1289646142266001</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
+    <row r="205" spans="1:11">
+      <c r="A205">
         <v>5</v>
       </c>
-      <c r="B204">
+      <c r="B205">
         <v>5106.2538623800001</v>
       </c>
-      <c r="C204">
+      <c r="C205">
         <v>2770.7378864299999</v>
       </c>
-      <c r="D204">
+      <c r="D205">
         <v>2643.7089443199998</v>
       </c>
-      <c r="E204">
+      <c r="E205">
         <f t="shared" si="29"/>
         <v>3.5069002310433333</v>
       </c>
-      <c r="F204">
+      <c r="F205">
         <f t="shared" si="30"/>
         <v>0.80051714880355773</v>
       </c>
-      <c r="G204">
+      <c r="G205">
         <v>2459.8202705399999</v>
       </c>
-      <c r="H204">
+      <c r="H205">
         <v>3067.4569606800001</v>
       </c>
-      <c r="I204">
+      <c r="I205">
         <v>1778.9580822</v>
       </c>
-      <c r="J204">
+      <c r="J205">
         <f t="shared" si="31"/>
         <v>2.4354117711400001</v>
       </c>
-      <c r="K204">
+      <c r="K205">
         <f t="shared" si="32"/>
         <v>0.37215774930051543</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
+    <row r="206" spans="1:11">
+      <c r="A206">
         <v>6</v>
       </c>
-      <c r="B205">
+      <c r="B206">
         <v>3179.2449951200001</v>
       </c>
-      <c r="C205">
+      <c r="C206">
         <v>6457.0040702799997</v>
       </c>
-      <c r="D205">
+      <c r="D206">
         <v>2686.07115746</v>
       </c>
-      <c r="E205">
+      <c r="E206">
         <f t="shared" si="29"/>
         <v>4.1074400742866661</v>
       </c>
-      <c r="F205">
+      <c r="F206">
         <f t="shared" si="30"/>
         <v>1.183376995014578</v>
       </c>
-      <c r="G205">
+      <c r="G206">
         <v>3351.7098426799998</v>
       </c>
-      <c r="H205">
+      <c r="H206">
         <v>2989.20798302</v>
       </c>
-      <c r="I205">
+      <c r="I206">
         <v>2221.48704529</v>
       </c>
-      <c r="J205">
+      <c r="J206">
         <f t="shared" si="31"/>
         <v>2.8541349569966665</v>
       </c>
-      <c r="K205">
+      <c r="K206">
         <f t="shared" si="32"/>
         <v>0.33318385050116339</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
+    <row r="207" spans="1:11">
+      <c r="A207">
         <v>7</v>
       </c>
-      <c r="B206">
+      <c r="B207">
         <v>3589.7221565200002</v>
       </c>
-      <c r="C206">
+      <c r="C207">
         <v>6470.1030254400002</v>
       </c>
-      <c r="D206">
+      <c r="D207">
         <v>3066.79797173</v>
       </c>
-      <c r="E206">
+      <c r="E207">
         <f t="shared" si="29"/>
         <v>4.3755410512300008</v>
       </c>
-      <c r="F206">
+      <c r="F207">
         <f t="shared" si="30"/>
         <v>1.058104409406186</v>
       </c>
-      <c r="G206">
+      <c r="G207">
         <v>3069.5970058399998</v>
       </c>
-      <c r="H206">
+      <c r="H207">
         <v>2407.9039096800002</v>
       </c>
-      <c r="I206">
+      <c r="I207">
         <v>3144.2298889200001</v>
       </c>
-      <c r="J206">
+      <c r="J207">
         <f t="shared" si="31"/>
         <v>2.8739102681466671</v>
       </c>
-      <c r="K206">
+      <c r="K207">
         <f t="shared" si="32"/>
         <v>0.23399712349209667</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
+    <row r="208" spans="1:11">
+      <c r="A208">
         <v>8</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>6582.2219848599998</v>
       </c>
-      <c r="C207">
+      <c r="C208">
         <v>3286.5021228800001</v>
       </c>
-      <c r="D207">
+      <c r="D208">
         <v>6231.9288253799996</v>
       </c>
-      <c r="E207">
+      <c r="E208">
         <f t="shared" si="29"/>
         <v>5.3668843110400006</v>
       </c>
-      <c r="F207">
+      <c r="F208">
         <f t="shared" si="30"/>
         <v>1.0450947103818962</v>
       </c>
-      <c r="G207">
+      <c r="G208">
         <v>3653.26189995</v>
       </c>
-      <c r="H207">
+      <c r="H208">
         <v>3822.00479507</v>
       </c>
-      <c r="I207">
+      <c r="I208">
         <v>2607.4852943400001</v>
       </c>
-      <c r="J207">
+      <c r="J208">
         <f t="shared" si="31"/>
         <v>3.360917329786667</v>
       </c>
-      <c r="K207">
+      <c r="K208">
         <f t="shared" si="32"/>
         <v>0.37985234639762711</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
+    <row r="209" spans="1:11">
+      <c r="A209">
         <v>9</v>
       </c>
-      <c r="B208">
+      <c r="B209">
         <v>4889.5130157499998</v>
       </c>
-      <c r="C208">
+      <c r="C209">
         <v>4276.75080299</v>
       </c>
-      <c r="D208">
+      <c r="D209">
         <v>7322.1373557999996</v>
       </c>
-      <c r="E208">
+      <c r="E209">
         <f t="shared" si="29"/>
         <v>5.4961337248466657</v>
       </c>
-      <c r="F208">
+      <c r="F209">
         <f t="shared" si="30"/>
         <v>0.92997962836786563</v>
       </c>
-      <c r="G208">
+      <c r="G209">
         <v>4791.8441295599996</v>
       </c>
-      <c r="H208">
+      <c r="H209">
         <v>2993.8719272600001</v>
       </c>
-      <c r="I208">
+      <c r="I209">
         <v>3133.2650184600002</v>
       </c>
-      <c r="J208">
+      <c r="J209">
         <f t="shared" si="31"/>
         <v>3.6396603584266667</v>
       </c>
-      <c r="K208">
+      <c r="K209">
         <f t="shared" si="32"/>
         <v>0.57749550945320283</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
+    <row r="210" spans="1:11">
+      <c r="A210">
         <v>10</v>
       </c>
-      <c r="B209">
+      <c r="B210">
         <v>5727.2410392800002</v>
       </c>
-      <c r="C209">
+      <c r="C210">
         <v>4187.9298687</v>
       </c>
-      <c r="D209">
+      <c r="D210">
         <v>9344.0437316900006</v>
       </c>
-      <c r="E209">
+      <c r="E210">
         <f t="shared" si="29"/>
         <v>6.4197382132233329</v>
       </c>
-      <c r="F209">
+      <c r="F210">
         <f t="shared" si="30"/>
         <v>1.5281843032358198</v>
       </c>
-      <c r="G209">
+      <c r="G210">
         <v>3333.7211608900002</v>
       </c>
-      <c r="H209">
+      <c r="H210">
         <v>4955.7271003699998</v>
       </c>
-      <c r="I209">
+      <c r="I210">
         <v>3146.6078758200001</v>
       </c>
-      <c r="J209">
+      <c r="J210">
         <f t="shared" si="31"/>
         <v>3.8120187123600004</v>
       </c>
-      <c r="K209">
+      <c r="K210">
         <f t="shared" si="32"/>
         <v>0.57439954241095426</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
-      <c r="E211" t="s">
+    <row r="212" spans="1:11">
+      <c r="E212" t="s">
         <v>63</v>
       </c>
-      <c r="F211">
-        <f>MAX(F199:F209)</f>
+      <c r="F212">
+        <f>MAX(F200:F210)</f>
         <v>1.5281843032358198</v>
       </c>
-      <c r="J211" t="s">
+      <c r="J212" t="s">
         <v>63</v>
       </c>
-      <c r="K211">
-        <f>MAX(K199:K209)</f>
+      <c r="K212">
+        <f>MAX(K200:K210)</f>
         <v>0.57749550945320283</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>16</v>
-      </c>
-      <c r="B221" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" t="s">
         <v>35</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E223" t="s">
         <v>58</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F223" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
-      <c r="A223">
-        <v>0</v>
-      </c>
-      <c r="B223">
-        <v>922.28412628199999</v>
-      </c>
-      <c r="C223">
-        <v>750.16880035400004</v>
-      </c>
-      <c r="D223">
-        <v>896.02088928199998</v>
-      </c>
-      <c r="E223">
-        <f>AVERAGE(B223:D223)/1000</f>
-        <v>0.85615793863933332</v>
-      </c>
-      <c r="F223">
-        <f>STDEV(B223:D223)/SQRT(3)/1000</f>
-        <v>5.353414013592999E-2</v>
       </c>
     </row>
     <row r="224" spans="1:11">
       <c r="A224">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>1086.11702919</v>
+        <v>922.28412628199999</v>
       </c>
       <c r="C224">
-        <v>731.88519477800003</v>
+        <v>750.16880035400004</v>
       </c>
       <c r="D224">
-        <v>747.18689918500002</v>
+        <v>896.02088928199998</v>
       </c>
       <c r="E224">
-        <f t="shared" ref="E224:E228" si="33">AVERAGE(B224:D224)/1000</f>
-        <v>0.85506304105100017</v>
+        <f>AVERAGE(B224:D224)/1000</f>
+        <v>0.85615793863933332</v>
       </c>
       <c r="F224">
-        <f t="shared" ref="F224:F228" si="34">STDEV(B224:D224)/SQRT(3)/1000</f>
-        <v>0.11561141035907364</v>
+        <f>STDEV(B224:D224)/SQRT(3)/1000</f>
+        <v>5.353414013592999E-2</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
+        <v>10</v>
+      </c>
+      <c r="B225">
+        <v>1086.11702919</v>
+      </c>
+      <c r="C225">
+        <v>731.88519477800003</v>
+      </c>
+      <c r="D225">
+        <v>747.18689918500002</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ref="E225:E229" si="33">AVERAGE(B225:D225)/1000</f>
+        <v>0.85506304105100017</v>
+      </c>
+      <c r="F225">
+        <f t="shared" ref="F225:F229" si="34">STDEV(B225:D225)/SQRT(3)/1000</f>
+        <v>0.11561141035907364</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
         <v>20</v>
       </c>
-      <c r="B225">
+      <c r="B226">
         <v>1007.97986984</v>
       </c>
-      <c r="C225">
+      <c r="C226">
         <v>711.33995056200001</v>
       </c>
-      <c r="D225">
+      <c r="D226">
         <v>701.05314254799998</v>
       </c>
-      <c r="E225">
+      <c r="E226">
         <f t="shared" si="33"/>
         <v>0.8067909876499999</v>
       </c>
-      <c r="F225">
+      <c r="F226">
         <f t="shared" si="34"/>
         <v>0.10063826201206257</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
+    <row r="227" spans="1:6">
+      <c r="A227">
         <v>30</v>
       </c>
-      <c r="B226">
+      <c r="B227">
         <v>957.18574523899997</v>
       </c>
-      <c r="C226">
+      <c r="C227">
         <v>720.86310386699995</v>
       </c>
-      <c r="D226">
+      <c r="D227">
         <v>1004.43387032</v>
       </c>
-      <c r="E226">
+      <c r="E227">
         <f t="shared" si="33"/>
         <v>0.89416090647533342</v>
       </c>
-      <c r="F226">
+      <c r="F227">
         <f t="shared" si="34"/>
         <v>8.7715815036542841E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
+    <row r="228" spans="1:6">
+      <c r="A228">
         <v>40</v>
       </c>
-      <c r="B227">
+      <c r="B228">
         <v>1057.0878982500001</v>
       </c>
-      <c r="C227">
+      <c r="C228">
         <v>759.24420356799999</v>
       </c>
-      <c r="D227">
+      <c r="D228">
         <v>718.93191337600001</v>
       </c>
-      <c r="E227">
+      <c r="E228">
         <f t="shared" si="33"/>
         <v>0.84508800506466664</v>
       </c>
-      <c r="F227">
+      <c r="F228">
         <f t="shared" si="34"/>
         <v>0.1066368232492506</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
+    <row r="229" spans="1:6">
+      <c r="A229">
         <v>50</v>
       </c>
-      <c r="B228">
+      <c r="B229">
         <v>1238.3508682300001</v>
       </c>
-      <c r="C228">
+      <c r="C229">
         <v>751.60098075899998</v>
       </c>
-      <c r="D228">
+      <c r="D229">
         <v>844.99621391300002</v>
       </c>
-      <c r="E228">
+      <c r="E229">
         <f t="shared" si="33"/>
         <v>0.94498268763399995</v>
       </c>
-      <c r="F228">
+      <c r="F229">
         <f t="shared" si="34"/>
         <v>0.14914124673569018</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>0</v>
-      </c>
-      <c r="B249">
-        <v>114.279031754</v>
-      </c>
-      <c r="C249">
-        <v>103.74212265</v>
-      </c>
-      <c r="D249">
-        <v>95.014095306399994</v>
-      </c>
-      <c r="E249">
-        <f>AVERAGE(B249:D249)/1000</f>
-        <v>0.1043450832368</v>
-      </c>
-      <c r="F249">
-        <f>STDEV(B249:D249)/SQRT(3)/1000</f>
-        <v>5.5694737987366594E-3</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B250">
-        <v>98.383903503400006</v>
+        <v>114.279031754</v>
       </c>
       <c r="C250">
-        <v>98.827123642000004</v>
+        <v>103.74212265</v>
       </c>
       <c r="D250">
-        <v>101.709842682</v>
+        <v>95.014095306399994</v>
       </c>
       <c r="E250">
-        <f t="shared" ref="E250:E253" si="35">AVERAGE(B250:D250)/1000</f>
-        <v>9.9640289942466667E-2</v>
+        <f>AVERAGE(B250:D250)/1000</f>
+        <v>0.1043450832368</v>
       </c>
       <c r="F250">
-        <f t="shared" ref="F250:F253" si="36">STDEV(B250:D250)/SQRT(3)/1000</f>
-        <v>1.0426564517451865E-3</v>
+        <f>STDEV(B250:D250)/SQRT(3)/1000</f>
+        <v>5.5694737987366594E-3</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>98.383903503400006</v>
+      </c>
+      <c r="C251">
+        <v>98.827123642000004</v>
+      </c>
+      <c r="D251">
+        <v>101.709842682</v>
+      </c>
+      <c r="E251">
+        <f t="shared" ref="E251:E254" si="35">AVERAGE(B251:D251)/1000</f>
+        <v>9.9640289942466667E-2</v>
+      </c>
+      <c r="F251">
+        <f t="shared" ref="F251:F254" si="36">STDEV(B251:D251)/SQRT(3)/1000</f>
+        <v>1.0426564517451865E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
         <v>100</v>
       </c>
-      <c r="B251">
+      <c r="B252">
         <v>97.009897232100002</v>
       </c>
-      <c r="C251">
+      <c r="C252">
         <v>96.698999404899993</v>
       </c>
-      <c r="D251">
+      <c r="D252">
         <v>97.816944122300001</v>
       </c>
-      <c r="E251">
+      <c r="E252">
         <f t="shared" si="35"/>
         <v>9.7175280253100016E-2</v>
       </c>
-      <c r="F251">
+      <c r="F252">
         <f t="shared" si="36"/>
         <v>3.3314849317632103E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
+    <row r="253" spans="1:6">
+      <c r="A253">
         <v>1000</v>
       </c>
-      <c r="B252">
+      <c r="B253">
         <v>103.260993958</v>
       </c>
-      <c r="C252">
+      <c r="C253">
         <v>99.728107452399996</v>
       </c>
-      <c r="D252">
+      <c r="D253">
         <v>99.290132522600004</v>
       </c>
-      <c r="E252">
+      <c r="E253">
         <f t="shared" si="35"/>
         <v>0.10075974464433333</v>
       </c>
-      <c r="F252">
+      <c r="F253">
         <f t="shared" si="36"/>
         <v>1.256999284887334E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
+    <row r="254" spans="1:6">
+      <c r="A254">
         <v>10000</v>
       </c>
-      <c r="B253">
+      <c r="B254">
         <v>99.737167358400001</v>
       </c>
-      <c r="C253">
+      <c r="C254">
         <v>99.381923675500005</v>
       </c>
-      <c r="D253">
+      <c r="D254">
         <v>99.642992019700003</v>
       </c>
-      <c r="E253">
+      <c r="E254">
         <f t="shared" si="35"/>
         <v>9.9587361017866666E-2</v>
       </c>
-      <c r="F253">
+      <c r="F254">
         <f t="shared" si="36"/>
         <v>1.0625539175938866E-4</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
-        <v>7</v>
-      </c>
-      <c r="B255" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258">
-        <v>0</v>
-      </c>
-      <c r="B258">
-        <v>914.60013389599999</v>
-      </c>
-      <c r="C258">
-        <v>932.53397941599997</v>
-      </c>
-      <c r="D258">
-        <v>900.24399757399999</v>
-      </c>
-      <c r="E258">
-        <f>AVERAGE(B258:D258)/1000</f>
-        <v>0.9157927036286666</v>
-      </c>
-      <c r="F258">
-        <f>STDEV(B258:D258)/SQRT(3)/1000</f>
-        <v>9.3403675652982479E-3</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B259">
-        <v>994.54593658399995</v>
+        <v>914.60013389599999</v>
       </c>
       <c r="C259">
-        <v>1047.7440357200001</v>
+        <v>932.53397941599997</v>
       </c>
       <c r="D259">
-        <v>959.51604843099994</v>
+        <v>900.24399757399999</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E262" si="37">AVERAGE(B259:D259)/1000</f>
-        <v>1.0006020069116666</v>
+        <f>AVERAGE(B259:D259)/1000</f>
+        <v>0.9157927036286666</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F262" si="38">STDEV(B259:D259)/SQRT(3)/1000</f>
-        <v>2.5648595972796284E-2</v>
+        <f>STDEV(B259:D259)/SQRT(3)/1000</f>
+        <v>9.3403675652982479E-3</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
+        <v>10</v>
+      </c>
+      <c r="B260">
+        <v>994.54593658399995</v>
+      </c>
+      <c r="C260">
+        <v>1047.7440357200001</v>
+      </c>
+      <c r="D260">
+        <v>959.51604843099994</v>
+      </c>
+      <c r="E260">
+        <f t="shared" ref="E260:E263" si="37">AVERAGE(B260:D260)/1000</f>
+        <v>1.0006020069116666</v>
+      </c>
+      <c r="F260">
+        <f t="shared" ref="F260:F263" si="38">STDEV(B260:D260)/SQRT(3)/1000</f>
+        <v>2.5648595972796284E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
         <v>100</v>
       </c>
-      <c r="B260">
+      <c r="B261">
         <v>980.07488250699998</v>
       </c>
-      <c r="C260">
+      <c r="C261">
         <v>943.59779357900004</v>
       </c>
-      <c r="D260">
+      <c r="D261">
         <v>1063.24601173</v>
       </c>
-      <c r="E260">
+      <c r="E261">
         <f t="shared" si="37"/>
         <v>0.99563956260533326</v>
       </c>
-      <c r="F260">
+      <c r="F261">
         <f t="shared" si="38"/>
         <v>3.5405359653588736E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="A261">
+    <row r="262" spans="1:6">
+      <c r="A262">
         <v>1000</v>
       </c>
-      <c r="B261">
+      <c r="B262">
         <v>1481.80508614</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>1409.92093086</v>
       </c>
-      <c r="D261">
+      <c r="D262">
         <v>1552.9880523700001</v>
       </c>
-      <c r="E261">
+      <c r="E262">
         <f t="shared" si="37"/>
         <v>1.4815713564566668</v>
       </c>
-      <c r="F261">
+      <c r="F262">
         <f t="shared" si="38"/>
         <v>4.130008590169814E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
-      <c r="A262">
+    <row r="263" spans="1:6">
+      <c r="A263">
         <v>10000</v>
       </c>
-      <c r="B262">
+      <c r="B263">
         <v>9651.71813965</v>
       </c>
-      <c r="C262">
+      <c r="C263">
         <v>8619.0459728200003</v>
       </c>
-      <c r="D262">
+      <c r="D263">
         <v>8301.1929988899992</v>
       </c>
-      <c r="E262">
+      <c r="E263">
         <f t="shared" si="37"/>
         <v>8.8573190371200017</v>
       </c>
-      <c r="F262">
+      <c r="F263">
         <f t="shared" si="38"/>
         <v>0.40766002127360523</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
-      <c r="A264" t="s">
-        <v>17</v>
-      </c>
-      <c r="B264" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267">
-        <v>0</v>
-      </c>
-      <c r="B267">
-        <v>656.357049942</v>
-      </c>
-      <c r="C267">
-        <v>659.560918808</v>
-      </c>
-      <c r="D267">
-        <v>572.02696800199999</v>
-      </c>
-      <c r="E267">
-        <f>AVERAGE(B267:D267)/1000</f>
-        <v>0.62931497891733346</v>
-      </c>
-      <c r="F267">
-        <f>STDEV(B267:D267)/SQRT(3)/1000</f>
-        <v>2.8658933103566767E-2</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B268">
-        <v>671.36025428799996</v>
+        <v>656.357049942</v>
       </c>
       <c r="C268">
-        <v>619.34924125700002</v>
+        <v>659.560918808</v>
       </c>
       <c r="D268">
-        <v>657.73296356200001</v>
+        <v>572.02696800199999</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E271" si="39">AVERAGE(B268:D268)/1000</f>
-        <v>0.6494808197023334</v>
+        <f>AVERAGE(B268:D268)/1000</f>
+        <v>0.62931497891733346</v>
       </c>
       <c r="F268">
-        <f t="shared" ref="F268:F271" si="40">STDEV(B268:D268)/SQRT(3)/1000</f>
-        <v>1.5570910675981537E-2</v>
+        <f>STDEV(B268:D268)/SQRT(3)/1000</f>
+        <v>2.8658933103566767E-2</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
+        <v>10</v>
+      </c>
+      <c r="B269">
+        <v>671.36025428799996</v>
+      </c>
+      <c r="C269">
+        <v>619.34924125700002</v>
+      </c>
+      <c r="D269">
+        <v>657.73296356200001</v>
+      </c>
+      <c r="E269">
+        <f t="shared" ref="E269:E272" si="39">AVERAGE(B269:D269)/1000</f>
+        <v>0.6494808197023334</v>
+      </c>
+      <c r="F269">
+        <f t="shared" ref="F269:F272" si="40">STDEV(B269:D269)/SQRT(3)/1000</f>
+        <v>1.5570910675981537E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
         <v>100</v>
       </c>
-      <c r="B269">
+      <c r="B270">
         <v>577.34012603799999</v>
       </c>
-      <c r="C269">
+      <c r="C270">
         <v>625.603914261</v>
       </c>
-      <c r="D269">
+      <c r="D270">
         <v>621.44088745099998</v>
       </c>
-      <c r="E269">
+      <c r="E270">
         <f t="shared" si="39"/>
         <v>0.60812830924999994</v>
       </c>
-      <c r="F269">
+      <c r="F270">
         <f t="shared" si="40"/>
         <v>1.5440929021888048E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
-      <c r="A270">
+    <row r="271" spans="1:6">
+      <c r="A271">
         <v>1000</v>
       </c>
-      <c r="B270">
+      <c r="B271">
         <v>897.25494384800004</v>
       </c>
-      <c r="C270">
+      <c r="C271">
         <v>876.03282928500005</v>
       </c>
-      <c r="D270">
+      <c r="D271">
         <v>868.07703971900003</v>
       </c>
-      <c r="E270">
+      <c r="E271">
         <f t="shared" si="39"/>
         <v>0.88045493761733329</v>
       </c>
-      <c r="F270">
+      <c r="F271">
         <f t="shared" si="40"/>
         <v>8.708306454518925E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
-      <c r="A271">
+    <row r="272" spans="1:6">
+      <c r="A272">
         <v>10000</v>
       </c>
-      <c r="B271">
+      <c r="B272">
         <v>4608.3500385300003</v>
       </c>
-      <c r="C271">
+      <c r="C272">
         <v>4465.2738571199998</v>
       </c>
-      <c r="D271">
+      <c r="D272">
         <v>4445.6410408000002</v>
       </c>
-      <c r="E271">
+      <c r="E272">
         <f t="shared" si="39"/>
         <v>4.506421645483333</v>
       </c>
-      <c r="F271">
+      <c r="F272">
         <f t="shared" si="40"/>
         <v>5.1278357523652465E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
         <v>15</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>0</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C274" t="s">
         <v>7</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D274" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
         <v>65</v>
       </c>
-      <c r="B274">
-        <f>E249</f>
+      <c r="B275">
+        <f>E250</f>
         <v>0.1043450832368</v>
       </c>
-      <c r="C274">
-        <f>E258</f>
+      <c r="C275">
+        <f>E259</f>
         <v>0.9157927036286666</v>
       </c>
-      <c r="D274">
-        <f>E267</f>
+      <c r="D275">
+        <f>E268</f>
         <v>0.62931497891733346</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275">
+    <row r="276" spans="1:7">
+      <c r="A276">
         <v>10</v>
       </c>
-      <c r="B275">
-        <f t="shared" ref="B275:B278" si="41">E250</f>
+      <c r="B276">
+        <f t="shared" ref="B276:B279" si="41">E251</f>
         <v>9.9640289942466667E-2</v>
       </c>
-      <c r="C275">
-        <f t="shared" ref="C275:C278" si="42">E259</f>
+      <c r="C276">
+        <f t="shared" ref="C276:C279" si="42">E260</f>
         <v>1.0006020069116666</v>
       </c>
-      <c r="D275">
-        <f t="shared" ref="D275:D278" si="43">E268</f>
+      <c r="D276">
+        <f t="shared" ref="D276:D279" si="43">E269</f>
         <v>0.6494808197023334</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276">
+    <row r="277" spans="1:7">
+      <c r="A277">
         <v>100</v>
       </c>
-      <c r="B276">
+      <c r="B277">
         <f t="shared" si="41"/>
         <v>9.7175280253100016E-2</v>
       </c>
-      <c r="C276">
+      <c r="C277">
         <f t="shared" si="42"/>
         <v>0.99563956260533326</v>
       </c>
-      <c r="D276">
+      <c r="D277">
         <f t="shared" si="43"/>
         <v>0.60812830924999994</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277">
+    <row r="278" spans="1:7">
+      <c r="A278">
         <v>1000</v>
       </c>
-      <c r="B277">
+      <c r="B278">
         <f t="shared" si="41"/>
         <v>0.10075974464433333</v>
       </c>
-      <c r="C277">
+      <c r="C278">
         <f t="shared" si="42"/>
         <v>1.4815713564566668</v>
       </c>
-      <c r="D277">
+      <c r="D278">
         <f t="shared" si="43"/>
         <v>0.88045493761733329</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278">
+    <row r="279" spans="1:7">
+      <c r="A279">
         <v>10000</v>
       </c>
-      <c r="B278">
+      <c r="B279">
         <f t="shared" si="41"/>
         <v>9.9587361017866666E-2</v>
       </c>
-      <c r="C278">
+      <c r="C279">
         <f t="shared" si="42"/>
         <v>8.8573190371200017</v>
       </c>
-      <c r="D278">
+      <c r="D279">
         <f t="shared" si="43"/>
         <v>4.506421645483333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>2</v>
+      </c>
+      <c r="E285" t="s">
+        <v>58</v>
+      </c>
+      <c r="F285" t="s">
+        <v>33</v>
+      </c>
+      <c r="G285" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>103.260993958</v>
+      </c>
+      <c r="C286">
+        <v>99.728107452399996</v>
+      </c>
+      <c r="D286">
+        <v>99.290132522600004</v>
+      </c>
+      <c r="E286">
+        <f>AVERAGE(B286:D286)/1000</f>
+        <v>0.10075974464433333</v>
+      </c>
+      <c r="F286">
+        <f>STDEV(B286:D286)/SQRT(3)/1000</f>
+        <v>1.256999284887334E-3</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287">
+        <v>106.122016907</v>
+      </c>
+      <c r="C287">
+        <v>144.22106742899999</v>
+      </c>
+      <c r="D287">
+        <v>101.895093918</v>
+      </c>
+      <c r="E287">
+        <f t="shared" ref="E287:E290" si="44">AVERAGE(B287:D287)/1000</f>
+        <v>0.11741272608466666</v>
+      </c>
+      <c r="F287">
+        <f t="shared" ref="F287:F290" si="45">STDEV(B287:D287)/SQRT(3)/1000</f>
+        <v>1.345959501265981E-2</v>
+      </c>
+      <c r="G287">
+        <f>((E287-0.10075974)/0.10075974)*100</f>
+        <v>16.527420658952334</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>10</v>
+      </c>
+      <c r="B288">
+        <v>110.21900177000001</v>
+      </c>
+      <c r="C288">
+        <v>98.047018051099997</v>
+      </c>
+      <c r="D288">
+        <v>98.684072494500001</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="44"/>
+        <v>0.10231669743853332</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="45"/>
+        <v>3.9554295974563707E-3</v>
+      </c>
+      <c r="G288">
+        <f t="shared" ref="G288:G290" si="46">((E288-0.10075974)/0.10075974)*100</f>
+        <v>1.5452178008134188</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>100</v>
+      </c>
+      <c r="B289">
+        <v>120.01299858100001</v>
+      </c>
+      <c r="C289">
+        <v>149.902105331</v>
+      </c>
+      <c r="D289">
+        <v>105.201005936</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="44"/>
+        <v>0.12503870328266667</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="45"/>
+        <v>1.3146486889300951E-2</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="46"/>
+        <v>24.095897113933269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>1000</v>
+      </c>
+      <c r="B290">
+        <v>168.749094009</v>
+      </c>
+      <c r="C290">
+        <v>150.56204795799999</v>
+      </c>
+      <c r="D290">
+        <v>144.093036652</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="44"/>
+        <v>0.15446805953966669</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="45"/>
+        <v>7.3806726422236107E-3</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="46"/>
+        <v>53.303352648256819</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>1</v>
+      </c>
+      <c r="B294" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>1481.80508614</v>
+      </c>
+      <c r="C297">
+        <v>1409.92093086</v>
+      </c>
+      <c r="D297">
+        <v>1552.9880523700001</v>
+      </c>
+      <c r="E297">
+        <f>AVERAGE(B297:D297)/1000</f>
+        <v>1.4815713564566668</v>
+      </c>
+      <c r="F297">
+        <f>STDEV(B297:D297)/SQRT(3)/1000</f>
+        <v>4.130008590169814E-2</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <v>1408.9989662200001</v>
+      </c>
+      <c r="C298">
+        <v>1583.8890075700001</v>
+      </c>
+      <c r="D298">
+        <v>1466.3722515100001</v>
+      </c>
+      <c r="E298">
+        <f t="shared" ref="E298:E301" si="47">AVERAGE(B298:D298)/1000</f>
+        <v>1.4864200751000001</v>
+      </c>
+      <c r="F298">
+        <f t="shared" ref="F298:F301" si="48">STDEV(B298:D298)/SQRT(3)/1000</f>
+        <v>5.1471895450731185E-2</v>
+      </c>
+      <c r="G298">
+        <f>(E298-1.48157136)*100/1.48157136</f>
+        <v>0.32726841452983185</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>10</v>
+      </c>
+      <c r="B299">
+        <v>1614.6287918099999</v>
+      </c>
+      <c r="C299">
+        <v>1365.0598526000001</v>
+      </c>
+      <c r="D299">
+        <v>1505.42902946</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="47"/>
+        <v>1.4950392246233333</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="48"/>
+        <v>7.2231398731228524E-2</v>
+      </c>
+      <c r="G299">
+        <f t="shared" ref="G299:G301" si="49">(E299-1.48157136)*100/1.48157136</f>
+        <v>0.90902571330302107</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>100</v>
+      </c>
+      <c r="B300">
+        <v>1631.23011589</v>
+      </c>
+      <c r="C300">
+        <v>1534.4460010499999</v>
+      </c>
+      <c r="D300">
+        <v>1493.4768676799999</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="47"/>
+        <v>1.5530509948733331</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="48"/>
+        <v>4.0839518012484644E-2</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="49"/>
+        <v>4.8245826561693992</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>1000</v>
+      </c>
+      <c r="B301">
+        <v>1701.4939784999999</v>
+      </c>
+      <c r="C301">
+        <v>1588.5190963699999</v>
+      </c>
+      <c r="D301">
+        <v>1657.4499607099999</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="47"/>
+        <v>1.6491543451933333</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="48"/>
+        <v>3.2875745495588478E-2</v>
+      </c>
+      <c r="G301">
+        <f t="shared" si="49"/>
+        <v>11.311165274775105</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" t="s">
+        <v>71</v>
+      </c>
+      <c r="E304" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <f>E286</f>
+        <v>0.10075974464433333</v>
+      </c>
+      <c r="C305">
+        <f>E297</f>
+        <v>1.4815713564566668</v>
+      </c>
+      <c r="D305">
+        <f>E315</f>
+        <v>0.10075974464433333</v>
+      </c>
+      <c r="E305">
+        <f>E325</f>
+        <v>1.4815713564566668</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306">
+        <f t="shared" ref="B306:B309" si="50">E287</f>
+        <v>0.11741272608466666</v>
+      </c>
+      <c r="C306">
+        <f t="shared" ref="C306:C309" si="51">E298</f>
+        <v>1.4864200751000001</v>
+      </c>
+      <c r="D306">
+        <f t="shared" ref="D306:D309" si="52">E316</f>
+        <v>5.16750017802E-2</v>
+      </c>
+      <c r="E306">
+        <f t="shared" ref="E306:E309" si="53">E326</f>
+        <v>6.7999680837000004E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>10</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="50"/>
+        <v>0.10231669743853332</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="51"/>
+        <v>1.4950392246233333</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="52"/>
+        <v>5.5209636688233331E-2</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="53"/>
+        <v>8.5746685663766656E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>100</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="50"/>
+        <v>0.12503870328266667</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="51"/>
+        <v>1.5530509948733331</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="52"/>
+        <v>0.10300509134919998</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="53"/>
+        <v>0.11606963475566666</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>1000</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="50"/>
+        <v>0.15446805953966669</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="51"/>
+        <v>1.6491543451933333</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="52"/>
+        <v>0.17823934555033336</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="53"/>
+        <v>0.19406795501666671</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>66</v>
+      </c>
+      <c r="C311" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>103.260993958</v>
+      </c>
+      <c r="C315">
+        <v>99.728107452399996</v>
+      </c>
+      <c r="D315">
+        <v>99.290132522600004</v>
+      </c>
+      <c r="E315">
+        <f>AVERAGE(B315:D315)/1000</f>
+        <v>0.10075974464433333</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316">
+        <v>51.359891891499998</v>
+      </c>
+      <c r="C316">
+        <v>52.628040313699998</v>
+      </c>
+      <c r="D316">
+        <v>51.0370731354</v>
+      </c>
+      <c r="E316">
+        <f t="shared" ref="E316:E319" si="54">AVERAGE(B316:D316)/1000</f>
+        <v>5.16750017802E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317">
+        <v>10</v>
+      </c>
+      <c r="B317">
+        <v>56.2551021576</v>
+      </c>
+      <c r="C317">
+        <v>55.470943450900002</v>
+      </c>
+      <c r="D317">
+        <v>53.9028644562</v>
+      </c>
+      <c r="E317">
+        <f t="shared" si="54"/>
+        <v>5.5209636688233331E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318">
+        <v>100</v>
+      </c>
+      <c r="B318">
+        <v>104.04109954800001</v>
+      </c>
+      <c r="C318">
+        <v>97.090005874599996</v>
+      </c>
+      <c r="D318">
+        <v>107.884168625</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="54"/>
+        <v>0.10300509134919998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319">
+        <v>1000</v>
+      </c>
+      <c r="B319">
+        <v>171.08416557300001</v>
+      </c>
+      <c r="C319">
+        <v>169.679880142</v>
+      </c>
+      <c r="D319">
+        <v>193.953990936</v>
+      </c>
+      <c r="E319">
+        <f t="shared" si="54"/>
+        <v>0.17823934555033336</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" t="s">
+        <v>66</v>
+      </c>
+      <c r="C321" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>1481.80508614</v>
+      </c>
+      <c r="C325">
+        <v>1409.92093086</v>
+      </c>
+      <c r="D325">
+        <v>1552.9880523700001</v>
+      </c>
+      <c r="E325">
+        <f>AVERAGE(B325:D325)/1000</f>
+        <v>1.4815713564566668</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326">
+        <v>72.026968002299995</v>
+      </c>
+      <c r="C326">
+        <v>64.966917038000005</v>
+      </c>
+      <c r="D326">
+        <v>67.005157470699999</v>
+      </c>
+      <c r="E326">
+        <f t="shared" ref="E326:E329" si="55">AVERAGE(B326:D326)/1000</f>
+        <v>6.7999680837000004E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327">
+        <v>10</v>
+      </c>
+      <c r="B327">
+        <v>75.256109237700002</v>
+      </c>
+      <c r="C327">
+        <v>112.812042236</v>
+      </c>
+      <c r="D327">
+        <v>69.171905517599996</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="55"/>
+        <v>8.5746685663766656E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328">
+        <v>100</v>
+      </c>
+      <c r="B328">
+        <v>108.577013016</v>
+      </c>
+      <c r="C328">
+        <v>118.59989166299999</v>
+      </c>
+      <c r="D328">
+        <v>121.03199958800001</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="55"/>
+        <v>0.11606963475566666</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329">
+        <v>1000</v>
+      </c>
+      <c r="B329">
+        <v>190.26684761000001</v>
+      </c>
+      <c r="C329">
+        <v>202.13007926899999</v>
+      </c>
+      <c r="D329">
+        <v>189.80693817100001</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="55"/>
+        <v>0.19406795501666671</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -689,11 +688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099420024"/>
-        <c:axId val="-2097285224"/>
+        <c:axId val="-2088725896"/>
+        <c:axId val="-2087764376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099420024"/>
+        <c:axId val="-2088725896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,14 +714,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097285224"/>
+        <c:crossAx val="-2087764376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097285224"/>
+        <c:axId val="-2087764376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -754,14 +752,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099420024"/>
+        <c:crossAx val="-2088725896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -968,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100226712"/>
-        <c:axId val="-2100240216"/>
+        <c:axId val="-2074459928"/>
+        <c:axId val="-2074456952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100226712"/>
+        <c:axId val="-2074459928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100240216"/>
+        <c:crossAx val="-2074456952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -989,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100240216"/>
+        <c:axId val="-2074456952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1021,7 +1018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100226712"/>
+        <c:crossAx val="-2074459928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,11 +1206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093164648"/>
-        <c:axId val="-2100061048"/>
+        <c:axId val="-2074577448"/>
+        <c:axId val="-2074571736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093164648"/>
+        <c:axId val="-2074577448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100061048"/>
+        <c:crossAx val="-2074571736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100061048"/>
+        <c:axId val="-2074571736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093164648"/>
+        <c:crossAx val="-2074577448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1747,11 +1744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099695160"/>
-        <c:axId val="-2093899784"/>
+        <c:axId val="-2074532040"/>
+        <c:axId val="-2074526536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099695160"/>
+        <c:axId val="-2074532040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093899784"/>
+        <c:crossAx val="-2074526536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1788,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093899784"/>
+        <c:axId val="-2074526536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099695160"/>
+        <c:crossAx val="-2074532040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2097,11 +2094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112123464"/>
-        <c:axId val="-2093906792"/>
+        <c:axId val="-2074680152"/>
+        <c:axId val="-2074252504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112123464"/>
+        <c:axId val="-2074680152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093906792"/>
+        <c:crossAx val="-2074252504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2142,7 +2139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093906792"/>
+        <c:axId val="-2074252504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -2173,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112123464"/>
+        <c:crossAx val="-2074680152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2383,11 +2380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085548120"/>
-        <c:axId val="-2084737560"/>
+        <c:axId val="-2087749624"/>
+        <c:axId val="-2088668456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085548120"/>
+        <c:axId val="-2087749624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084737560"/>
+        <c:crossAx val="-2088668456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2424,7 +2421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084737560"/>
+        <c:axId val="-2088668456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2460,7 +2457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085548120"/>
+        <c:crossAx val="-2087749624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2642,11 +2639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2091762792"/>
-        <c:axId val="-2102934408"/>
+        <c:axId val="-2074266424"/>
+        <c:axId val="-2074260904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2091762792"/>
+        <c:axId val="-2074266424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102934408"/>
+        <c:crossAx val="-2074260904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2683,7 +2680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102934408"/>
+        <c:axId val="-2074260904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2714,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091762792"/>
+        <c:crossAx val="-2074266424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2766,7 +2763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2841,11 +2837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085278360"/>
-        <c:axId val="-2085304584"/>
+        <c:axId val="-2087849992"/>
+        <c:axId val="-2074217272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085278360"/>
+        <c:axId val="-2087849992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,14 +2868,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085304584"/>
+        <c:crossAx val="-2074217272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,7 +2882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085304584"/>
+        <c:axId val="-2074217272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2911,14 +2906,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085278360"/>
+        <c:crossAx val="-2087849992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2965,7 +2959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3182,11 +3175,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2104291272"/>
-        <c:axId val="-2104284760"/>
+        <c:axId val="-2074841224"/>
+        <c:axId val="-2074835688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2104291272"/>
+        <c:axId val="-2074841224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,13 +3201,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104284760"/>
+        <c:crossAx val="-2074835688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3222,7 +3214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104284760"/>
+        <c:axId val="-2074835688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3245,21 +3237,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104291272"/>
+        <c:crossAx val="-2074841224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3304,7 +3294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3524,11 +3513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096836088"/>
-        <c:axId val="-2098014904"/>
+        <c:axId val="-2074797800"/>
+        <c:axId val="-2074792280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096836088"/>
+        <c:axId val="-2074797800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,14 +3539,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098014904"/>
+        <c:crossAx val="-2074792280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3565,7 +3553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098014904"/>
+        <c:axId val="-2074792280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3594,21 +3582,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096836088"/>
+        <c:crossAx val="-2074797800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3933,11 +3919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098026760"/>
-        <c:axId val="-2096143448"/>
+        <c:axId val="-2087845944"/>
+        <c:axId val="-2087995560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098026760"/>
+        <c:axId val="-2087845944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,7 +3932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096143448"/>
+        <c:crossAx val="-2087995560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3954,7 +3940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096143448"/>
+        <c:axId val="-2087995560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3978,21 +3964,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098026760"/>
+        <c:crossAx val="-2087845944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4243,11 +4227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101914248"/>
-        <c:axId val="-2102186168"/>
+        <c:axId val="-2088099656"/>
+        <c:axId val="-2074525480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101914248"/>
+        <c:axId val="-2088099656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102186168"/>
+        <c:crossAx val="-2074525480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4284,7 +4268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102186168"/>
+        <c:axId val="-2074525480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4320,7 +4304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101914248"/>
+        <c:crossAx val="-2088099656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4520,11 +4504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109379208"/>
-        <c:axId val="-2101377016"/>
+        <c:axId val="-2074495064"/>
+        <c:axId val="-2074489560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109379208"/>
+        <c:axId val="-2074495064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101377016"/>
+        <c:crossAx val="-2074489560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4561,7 +4545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101377016"/>
+        <c:axId val="-2074489560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4592,7 +4576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109379208"/>
+        <c:crossAx val="-2074495064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4624,7 +4608,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4710,11 +4693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2099782504"/>
-        <c:axId val="-2099011976"/>
+        <c:axId val="-2074418360"/>
+        <c:axId val="-2074415352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099782504"/>
+        <c:axId val="-2074418360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,7 +4706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099011976"/>
+        <c:crossAx val="-2074415352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4731,7 +4714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099011976"/>
+        <c:axId val="-2074415352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -4743,7 +4726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099782504"/>
+        <c:crossAx val="-2074418360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4790,7 +4773,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4873,11 +4855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098883096"/>
-        <c:axId val="-2099400024"/>
+        <c:axId val="-2074390344"/>
+        <c:axId val="-2074387336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098883096"/>
+        <c:axId val="-2074390344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4886,7 +4868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099400024"/>
+        <c:crossAx val="-2074387336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4894,7 +4876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099400024"/>
+        <c:axId val="-2074387336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -4907,7 +4889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098883096"/>
+        <c:crossAx val="-2074390344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5236,8 +5218,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5703,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="T307" sqref="T307"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="U240" sqref="U240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="73">
   <si>
     <t>guestbook</t>
   </si>
@@ -286,8 +286,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,7 +444,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -500,6 +514,13 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -569,6 +590,13 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,6 +639,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -714,6 +743,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -752,6 +782,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2733,6 +2764,321 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Overhead vs. Number of APIs in Database (New)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rest-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$336:$F$341</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00934036756529825</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.141672045493587</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.226649139185932</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0677512911258048</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.238978721819887</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.407660021273605</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$336:$F$341</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00934036756529825</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.141672045493587</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.226649139185932</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0677512911258048</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.238978721819887</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.407660021273605</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$336:$A$341</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$336:$E$341</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.915792703628667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.386320670446667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.122056961059999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.756036758423333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.757439692816666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.85731903712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>guestbook</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$346:$E$351</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1043450832368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0973976453145666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1005289554595</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0996396541595333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100686709086267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0995873610178666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2075316280"/>
+        <c:axId val="-2075233656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2075316280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of APIs in Database</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075233656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075233656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deployment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075316280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -2763,6 +3109,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2868,6 +3215,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2906,6 +3254,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2959,6 +3308,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3201,6 +3551,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3237,6 +3588,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3250,6 +3602,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3294,6 +3647,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3539,6 +3893,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3582,6 +3937,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3595,6 +3951,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3964,6 +4321,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3977,6 +4335,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4608,6 +4967,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4773,6 +5133,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5358,6 +5719,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5683,10 +6074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N329"/>
+  <dimension ref="A1:N351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="U240" sqref="U240"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9792,7 +10183,7 @@
         <v>0.17823934555033336</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -9803,7 +10194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>1</v>
       </c>
@@ -9811,12 +10202,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>0</v>
       </c>
@@ -9834,7 +10225,7 @@
         <v>1.4815713564566668</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>1</v>
       </c>
@@ -9852,7 +10243,7 @@
         <v>6.7999680837000004E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>10</v>
       </c>
@@ -9870,7 +10261,7 @@
         <v>8.5746685663766656E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>100</v>
       </c>
@@ -9888,7 +10279,7 @@
         <v>0.11606963475566666</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>1000</v>
       </c>
@@ -9904,6 +10295,300 @@
       <c r="E329">
         <f t="shared" si="55"/>
         <v>0.19406795501666671</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>914.60013389599999</v>
+      </c>
+      <c r="C336">
+        <v>932.53397941599997</v>
+      </c>
+      <c r="D336">
+        <v>900.24399757399999</v>
+      </c>
+      <c r="E336">
+        <f>AVERAGE(B336:D336)/1000</f>
+        <v>0.9157927036286666</v>
+      </c>
+      <c r="F336">
+        <f>STDEV(B336:D336)/SQRT(3)/1000</f>
+        <v>9.3403675652982479E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>2000</v>
+      </c>
+      <c r="B337">
+        <v>2637.4511718799999</v>
+      </c>
+      <c r="C337">
+        <v>2147.1199989299998</v>
+      </c>
+      <c r="D337">
+        <v>2374.3908405299999</v>
+      </c>
+      <c r="E337">
+        <f t="shared" ref="E337:E341" si="56">AVERAGE(B337:D337)/1000</f>
+        <v>2.3863206704466666</v>
+      </c>
+      <c r="F337">
+        <f t="shared" ref="F337:F341" si="57">STDEV(B337:D337)/SQRT(3)/1000</f>
+        <v>0.14167204549358725</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>4000</v>
+      </c>
+      <c r="B338">
+        <v>4540.5912399299996</v>
+      </c>
+      <c r="C338">
+        <v>3762.02082634</v>
+      </c>
+      <c r="D338">
+        <v>4063.5588169100001</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="56"/>
+        <v>4.1220569610599993</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="57"/>
+        <v>0.22664913918593158</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>6000</v>
+      </c>
+      <c r="B339">
+        <v>5620.6021308899999</v>
+      </c>
+      <c r="C339">
+        <v>5820.0380802199998</v>
+      </c>
+      <c r="D339">
+        <v>5827.4700641600002</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="56"/>
+        <v>5.756036758423333</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="57"/>
+        <v>6.7751291125804802E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>8000</v>
+      </c>
+      <c r="B340">
+        <v>7763.1659507799995</v>
+      </c>
+      <c r="C340">
+        <v>7340.6829834</v>
+      </c>
+      <c r="D340">
+        <v>8168.4701442699998</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="56"/>
+        <v>7.7574396928166669</v>
+      </c>
+      <c r="F340">
+        <f t="shared" si="57"/>
+        <v>0.23897872181988691</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>10000</v>
+      </c>
+      <c r="B341">
+        <v>9651.71813965</v>
+      </c>
+      <c r="C341">
+        <v>8619.0459728200003</v>
+      </c>
+      <c r="D341">
+        <v>8301.1929988899992</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="56"/>
+        <v>8.8573190371200017</v>
+      </c>
+      <c r="F341">
+        <f t="shared" si="57"/>
+        <v>0.40766002127360523</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>114.279031754</v>
+      </c>
+      <c r="C346">
+        <v>103.74212265</v>
+      </c>
+      <c r="D346">
+        <v>95.014095306399994</v>
+      </c>
+      <c r="E346">
+        <f>AVERAGE(B346:D346)/1000</f>
+        <v>0.1043450832368</v>
+      </c>
+      <c r="F346">
+        <f>STDEV(B346:D346)/SQRT(3)/1000</f>
+        <v>5.5694737987366594E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347">
+        <v>2000</v>
+      </c>
+      <c r="B347">
+        <v>104.62594032299999</v>
+      </c>
+      <c r="C347">
+        <v>94.449043273900003</v>
+      </c>
+      <c r="D347">
+        <v>93.117952346799996</v>
+      </c>
+      <c r="E347">
+        <f t="shared" ref="E347:E351" si="58">AVERAGE(B347:D347)/1000</f>
+        <v>9.7397645314566655E-2</v>
+      </c>
+      <c r="F347">
+        <f t="shared" ref="F347:F351" si="59">STDEV(B347:D347)/SQRT(3)/1000</f>
+        <v>3.6345168092773417E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348">
+        <v>4000</v>
+      </c>
+      <c r="B348">
+        <v>101.593971252</v>
+      </c>
+      <c r="C348">
+        <v>102.27799415600001</v>
+      </c>
+      <c r="D348">
+        <v>97.714900970499997</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="58"/>
+        <v>0.10052895545949998</v>
+      </c>
+      <c r="F348">
+        <f t="shared" si="59"/>
+        <v>1.4208153567107115E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349">
+        <v>6000</v>
+      </c>
+      <c r="B349">
+        <v>97.568035125700007</v>
+      </c>
+      <c r="C349">
+        <v>99.911928176900005</v>
+      </c>
+      <c r="D349">
+        <v>101.438999176</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="58"/>
+        <v>9.9639654159533339E-2</v>
+      </c>
+      <c r="F349">
+        <f t="shared" si="59"/>
+        <v>1.125713185063653E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350">
+        <v>8000</v>
+      </c>
+      <c r="B350">
+        <v>99.797010421799996</v>
+      </c>
+      <c r="C350">
+        <v>103.543043137</v>
+      </c>
+      <c r="D350">
+        <v>98.7200737</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="58"/>
+        <v>0.10068670908626666</v>
+      </c>
+      <c r="F350">
+        <f t="shared" si="59"/>
+        <v>1.4616122756194441E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351">
+        <v>10000</v>
+      </c>
+      <c r="B351">
+        <v>99.737167358400001</v>
+      </c>
+      <c r="C351">
+        <v>99.381923675500005</v>
+      </c>
+      <c r="D351">
+        <v>99.642992019700003</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="58"/>
+        <v>9.9587361017866666E-2</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="59"/>
+        <v>1.0625539175938866E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
   <si>
     <t>guestbook</t>
   </si>
@@ -239,6 +239,9 @@
   <si>
     <t>rest-app-fail</t>
   </si>
+  <si>
+    <t>after-doc-db-change</t>
+  </si>
 </sst>
 </file>
 
@@ -286,8 +289,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,7 +449,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -521,6 +526,7 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -597,6 +603,7 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,11 +724,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088725896"/>
-        <c:axId val="-2087764376"/>
+        <c:axId val="-2084615224"/>
+        <c:axId val="-2068404072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088725896"/>
+        <c:axId val="-2084615224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087764376"/>
+        <c:crossAx val="-2068404072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087764376"/>
+        <c:axId val="-2068404072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -789,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088725896"/>
+        <c:crossAx val="-2084615224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -996,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2074459928"/>
-        <c:axId val="-2074456952"/>
+        <c:axId val="-2066730296"/>
+        <c:axId val="-2066017240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074459928"/>
+        <c:axId val="-2066730296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074456952"/>
+        <c:crossAx val="-2066017240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1017,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074456952"/>
+        <c:axId val="-2066017240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1049,7 +1056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074459928"/>
+        <c:crossAx val="-2066730296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,11 +1244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074577448"/>
-        <c:axId val="-2074571736"/>
+        <c:axId val="-2065831112"/>
+        <c:axId val="-2065825400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074577448"/>
+        <c:axId val="-2065831112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074571736"/>
+        <c:crossAx val="-2065825400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074571736"/>
+        <c:axId val="-2065825400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074577448"/>
+        <c:crossAx val="-2065831112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1775,11 +1782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074532040"/>
-        <c:axId val="-2074526536"/>
+        <c:axId val="-2065785720"/>
+        <c:axId val="-2065974776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074532040"/>
+        <c:axId val="-2065785720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074526536"/>
+        <c:crossAx val="-2065974776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1816,7 +1823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074526536"/>
+        <c:axId val="-2065974776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074532040"/>
+        <c:crossAx val="-2065785720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2125,11 +2132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074680152"/>
-        <c:axId val="-2074252504"/>
+        <c:axId val="-2066223592"/>
+        <c:axId val="-2066217832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074680152"/>
+        <c:axId val="-2066223592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074252504"/>
+        <c:crossAx val="-2066217832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2170,7 +2177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074252504"/>
+        <c:axId val="-2066217832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -2201,7 +2208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074680152"/>
+        <c:crossAx val="-2066223592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2411,11 +2418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087749624"/>
-        <c:axId val="-2088668456"/>
+        <c:axId val="-2065966760"/>
+        <c:axId val="-2088292056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087749624"/>
+        <c:axId val="-2065966760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088668456"/>
+        <c:crossAx val="-2088292056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2452,7 +2459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088668456"/>
+        <c:axId val="-2088292056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2488,7 +2495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087749624"/>
+        <c:crossAx val="-2065966760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,11 +2677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074266424"/>
-        <c:axId val="-2074260904"/>
+        <c:axId val="2051862504"/>
+        <c:axId val="-2088350024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074266424"/>
+        <c:axId val="2051862504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074260904"/>
+        <c:crossAx val="-2088350024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2711,7 +2718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074260904"/>
+        <c:axId val="-2088350024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2742,7 +2749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074266424"/>
+        <c:crossAx val="2051862504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2981,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2075316280"/>
-        <c:axId val="-2075233656"/>
+        <c:axId val="-2088637560"/>
+        <c:axId val="-2088071656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2075316280"/>
+        <c:axId val="-2088637560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075233656"/>
+        <c:crossAx val="-2088071656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3022,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075233656"/>
+        <c:axId val="-2088071656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,13 +3047,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deployment</a:t>
+                  <a:t>Time Spent on EAGER (s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3057,7 +3059,266 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075316280"/>
+        <c:crossAx val="-2088637560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs. Number of APIs in Database </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Optimization</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Results)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>After optimization</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$357:$A$362</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$357:$E$362</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.655919710795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.758125066757333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895193974177666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.966578960419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.062189976373667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.277196089426667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Before Optimization</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$336:$E$341</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.915792703628667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.386320670446667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.122056961059999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.756036758423333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.757439692816666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.85731903712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2070329672"/>
+        <c:axId val="-2077203432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2070329672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of APIs in Database</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077203432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2077203432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070329672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3184,11 +3445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087849992"/>
-        <c:axId val="-2074217272"/>
+        <c:axId val="-2073529816"/>
+        <c:axId val="-2073491992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087849992"/>
+        <c:axId val="-2073529816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074217272"/>
+        <c:crossAx val="-2073491992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3230,7 +3491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074217272"/>
+        <c:axId val="-2073491992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3261,7 +3522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087849992"/>
+        <c:crossAx val="-2073529816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3525,11 +3786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074841224"/>
-        <c:axId val="-2074835688"/>
+        <c:axId val="-2073576744"/>
+        <c:axId val="-2073352920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074841224"/>
+        <c:axId val="-2073576744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +3818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074835688"/>
+        <c:crossAx val="-2073352920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3565,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074835688"/>
+        <c:axId val="-2073352920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,7 +3856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074841224"/>
+        <c:crossAx val="-2073576744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3867,11 +4128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074797800"/>
-        <c:axId val="-2074792280"/>
+        <c:axId val="-2066488680"/>
+        <c:axId val="-2066483192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074797800"/>
+        <c:axId val="-2066488680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +4161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074792280"/>
+        <c:crossAx val="-2066483192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3908,7 +4169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074792280"/>
+        <c:axId val="-2066483192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3944,7 +4205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074797800"/>
+        <c:crossAx val="-2066488680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,11 +4537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087845944"/>
-        <c:axId val="-2087995560"/>
+        <c:axId val="-2066336616"/>
+        <c:axId val="-2066332760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087845944"/>
+        <c:axId val="-2066336616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,7 +4550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087995560"/>
+        <c:crossAx val="-2066332760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4297,7 +4558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087995560"/>
+        <c:axId val="-2066332760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4328,7 +4589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087845944"/>
+        <c:crossAx val="-2066336616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4586,11 +4847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088099656"/>
-        <c:axId val="-2074525480"/>
+        <c:axId val="-2066509016"/>
+        <c:axId val="-2066503544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088099656"/>
+        <c:axId val="-2066509016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4619,7 +4880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074525480"/>
+        <c:crossAx val="-2066503544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4627,7 +4888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074525480"/>
+        <c:axId val="-2066503544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4663,7 +4924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088099656"/>
+        <c:crossAx val="-2066509016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4863,11 +5124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2074495064"/>
-        <c:axId val="-2074489560"/>
+        <c:axId val="-2066604072"/>
+        <c:axId val="-2066087928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2074495064"/>
+        <c:axId val="-2066604072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4896,7 +5157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074489560"/>
+        <c:crossAx val="-2066087928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4904,7 +5165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074489560"/>
+        <c:axId val="-2066087928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4935,7 +5196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074495064"/>
+        <c:crossAx val="-2066604072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5053,11 +5314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2074418360"/>
-        <c:axId val="-2074415352"/>
+        <c:axId val="-2066573000"/>
+        <c:axId val="-2066569992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074418360"/>
+        <c:axId val="-2066573000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074415352"/>
+        <c:crossAx val="-2066569992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5074,7 +5335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074415352"/>
+        <c:axId val="-2066569992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -5086,7 +5347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074418360"/>
+        <c:crossAx val="-2066573000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5216,11 +5477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2074390344"/>
-        <c:axId val="-2074387336"/>
+        <c:axId val="-2066053288"/>
+        <c:axId val="-2066050280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074390344"/>
+        <c:axId val="-2066053288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5229,7 +5490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074387336"/>
+        <c:crossAx val="-2066050280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5237,7 +5498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2074387336"/>
+        <c:axId val="-2066050280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -5250,7 +5511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074390344"/>
+        <c:crossAx val="-2066053288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5749,6 +6010,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6074,10 +6365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N351"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="D352" sqref="D352"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="R374" sqref="R374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10589,6 +10880,156 @@
       <c r="F351">
         <f t="shared" si="59"/>
         <v>1.0625539175938866E-4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>643.99504661599997</v>
+      </c>
+      <c r="C357">
+        <v>672.84011840799997</v>
+      </c>
+      <c r="D357">
+        <v>650.923967361</v>
+      </c>
+      <c r="E357">
+        <f>AVERAGE(B357:D357)/1000</f>
+        <v>0.655919710795</v>
+      </c>
+      <c r="F357">
+        <f>STDEV(B357:D357)/SQRT(3)/1000</f>
+        <v>8.6934387330364262E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358">
+        <v>2000</v>
+      </c>
+      <c r="B358">
+        <v>885.92195510900001</v>
+      </c>
+      <c r="C358">
+        <v>668.80917549100002</v>
+      </c>
+      <c r="D358">
+        <v>719.644069672</v>
+      </c>
+      <c r="E358">
+        <f t="shared" ref="E358:E362" si="60">AVERAGE(B358:D358)/1000</f>
+        <v>0.75812506675733349</v>
+      </c>
+      <c r="F358">
+        <f t="shared" ref="F358:F362" si="61">STDEV(B358:D358)/SQRT(3)/1000</f>
+        <v>6.5561879474977269E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359">
+        <v>4000</v>
+      </c>
+      <c r="B359">
+        <v>814.193964005</v>
+      </c>
+      <c r="C359">
+        <v>724.97892379799998</v>
+      </c>
+      <c r="D359">
+        <v>1146.40903473</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="60"/>
+        <v>0.89519397417766655</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="61"/>
+        <v>0.12822062475283133</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360">
+        <v>6000</v>
+      </c>
+      <c r="B360">
+        <v>888.97800445600001</v>
+      </c>
+      <c r="C360">
+        <v>852.29897499100002</v>
+      </c>
+      <c r="D360">
+        <v>1158.45990181</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="60"/>
+        <v>0.96657896041900004</v>
+      </c>
+      <c r="F360">
+        <f t="shared" si="61"/>
+        <v>9.6522984399996278E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361">
+        <v>8000</v>
+      </c>
+      <c r="B361">
+        <v>883.68082046500001</v>
+      </c>
+      <c r="C361">
+        <v>941.20216369599996</v>
+      </c>
+      <c r="D361">
+        <v>1361.6869449599999</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="60"/>
+        <v>1.0621899763736666</v>
+      </c>
+      <c r="F361">
+        <f t="shared" si="61"/>
+        <v>0.15066630000996345</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362">
+        <v>10000</v>
+      </c>
+      <c r="B362">
+        <v>1090.36803246</v>
+      </c>
+      <c r="C362">
+        <v>1462.0330333700001</v>
+      </c>
+      <c r="D362">
+        <v>1279.1872024500001</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="60"/>
+        <v>1.2771960894266667</v>
+      </c>
+      <c r="F362">
+        <f t="shared" si="61"/>
+        <v>0.10729506298623623</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="84">
   <si>
     <t>guestbook</t>
   </si>
@@ -242,6 +242,36 @@
   <si>
     <t>after-doc-db-change</t>
   </si>
+  <si>
+    <t>pweb</t>
+  </si>
+  <si>
+    <t>18322 APIs</t>
+  </si>
+  <si>
+    <t>33615 edges</t>
+  </si>
+  <si>
+    <t>random-10</t>
+  </si>
+  <si>
+    <t>fixed-10</t>
+  </si>
+  <si>
+    <t>random-20</t>
+  </si>
+  <si>
+    <t>fixed-20</t>
+  </si>
+  <si>
+    <t>random-50</t>
+  </si>
+  <si>
+    <t>fixed-50</t>
+  </si>
+  <si>
+    <t>after storage optimization</t>
+  </si>
 </sst>
 </file>
 
@@ -289,8 +319,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,7 +495,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="171">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -527,6 +573,14 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -604,6 +658,14 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3340,6 +3402,462 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Overhead on PWeb Dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$365:$F$367</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00605597207859673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.248266293381738</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.204596933529455</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$365:$F$367</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00605597207859673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.248266293381738</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.204596933529455</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$365:$A$367</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>guestbook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>simple-rest-app</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dependent-app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$365:$E$367</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1052887439726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.726854483286667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.187556584677333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2076087464"/>
+        <c:axId val="-2078976184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2076087464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2078976184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2078976184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2076087464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead on PWeb Dataset</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(Different Dependency Combinations)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$399:$F$404</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.134258219305436</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0449161502094277</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120508243954282</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0557164410473604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0794758621535265</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0382530098499452</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$399:$F$404</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.134258219305436</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0449161502094277</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120508243954282</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0557164410473604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0794758621535265</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0382530098499452</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$399:$A$404</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>random-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fixed-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>random-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fixed-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$399:$E$404</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.150509993234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887675046920667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14377395312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881938378016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.175554354983334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.022543748217667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2069884232"/>
+        <c:axId val="-2073173992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2069884232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073173992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073173992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2069884232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -3523,6 +4041,561 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2073529816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs. Number of APIs in DB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(After Storage Optimization)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rest-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$423:$A$428</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$423:$E$428</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.655919710795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.758125066757333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895193974177666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.966578960419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.062189976373667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.277196089426667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>guestbook</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$432:$E$437</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1040544509887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107755581537933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.117367744445967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100934982299767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1158336003621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0988223552705333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dependent-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$441:$E$446</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.469149192174333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.533371845881333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.592227300008333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.647310733795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.730112075805667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.800931215287333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2087667912"/>
+        <c:axId val="2087671000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2087667912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of APIs in Database</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2087671000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2087671000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2087667912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead by Application</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$454:$F$461</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00244582139240381</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0157330017520189</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00589563100253063</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00225677632639159</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$454:$F$461</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00244582139240381</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0157330017520189</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00589563100253063</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00225677632639159</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$454:$A$461</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>guestbook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>guestbook-java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>appinventor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hawkeye</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>coursebuilder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rest-app</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dependent-app</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dependent-app-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$454:$E$461</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1040544509887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0959233442942333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125808715820367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1053773562115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110902388890333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.655919710795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.469149192174333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.813234090805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2085524056"/>
+        <c:axId val="-2084420376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2085524056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2084420376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2084420376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2085524056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6013,15 +7086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6035,6 +7108,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6365,10 +7558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N362"/>
+  <dimension ref="A1:N461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="R374" sqref="R374"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C461" sqref="C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11030,6 +12223,837 @@
       <c r="F362">
         <f t="shared" si="61"/>
         <v>0.10729506298623623</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>74</v>
+      </c>
+      <c r="B364" t="s">
+        <v>75</v>
+      </c>
+      <c r="C364" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>98.1678962708</v>
+      </c>
+      <c r="C365">
+        <v>100.364208221</v>
+      </c>
+      <c r="D365">
+        <v>117.33412742599999</v>
+      </c>
+      <c r="E365">
+        <f>AVERAGE(B365:D365)/1000</f>
+        <v>0.1052887439726</v>
+      </c>
+      <c r="F365">
+        <f>STDEV(B365:D365)/SQRT(3)/1000</f>
+        <v>6.0559720785967322E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366">
+        <v>2122.6592063899998</v>
+      </c>
+      <c r="C366">
+        <v>1269.313097</v>
+      </c>
+      <c r="D366">
+        <v>1788.59114647</v>
+      </c>
+      <c r="E366">
+        <f t="shared" ref="E366:E367" si="62">AVERAGE(B366:D366)/1000</f>
+        <v>1.7268544832866666</v>
+      </c>
+      <c r="F366">
+        <f t="shared" ref="F366:F367" si="63">STDEV(B366:D366)/SQRT(3)/1000</f>
+        <v>0.24826629338173786</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>17</v>
+      </c>
+      <c r="B367">
+        <v>1092.87810326</v>
+      </c>
+      <c r="C367">
+        <v>890.13981819200001</v>
+      </c>
+      <c r="D367">
+        <v>1579.65183258</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="62"/>
+        <v>1.1875565846773333</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="63"/>
+        <v>0.20459693352945454</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>77</v>
+      </c>
+      <c r="B399">
+        <v>885.31398773199999</v>
+      </c>
+      <c r="C399">
+        <v>1246.65093422</v>
+      </c>
+      <c r="D399">
+        <v>1319.5650577500001</v>
+      </c>
+      <c r="E399">
+        <f>AVERAGE(B399:D399)/1000</f>
+        <v>1.1505099932339999</v>
+      </c>
+      <c r="F399">
+        <f>STDEV(B399:D399)/SQRT(3)/1000</f>
+        <v>0.13425821930543627</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>78</v>
+      </c>
+      <c r="B400">
+        <v>977.08988189700005</v>
+      </c>
+      <c r="C400">
+        <v>850.45909881600005</v>
+      </c>
+      <c r="D400">
+        <v>835.47616004899999</v>
+      </c>
+      <c r="E400">
+        <f t="shared" ref="E400:E404" si="64">AVERAGE(B400:D400)/1000</f>
+        <v>0.88767504692066679</v>
+      </c>
+      <c r="F400">
+        <f t="shared" ref="F400:F404" si="65">STDEV(B400:D400)/SQRT(3)/1000</f>
+        <v>4.4916150209427699E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>79</v>
+      </c>
+      <c r="B401">
+        <v>1108.6227893800001</v>
+      </c>
+      <c r="C401">
+        <v>954.85496521000005</v>
+      </c>
+      <c r="D401">
+        <v>1367.8441047700001</v>
+      </c>
+      <c r="E401">
+        <f>AVERAGE(B401:D401)/1000</f>
+        <v>1.1437739531200002</v>
+      </c>
+      <c r="F401">
+        <f>STDEV(B401:D401)/SQRT(3)/1000</f>
+        <v>0.12050824395428164</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>80</v>
+      </c>
+      <c r="B402">
+        <v>829.75602149999997</v>
+      </c>
+      <c r="C402">
+        <v>993.29805374099999</v>
+      </c>
+      <c r="D402">
+        <v>822.76105880700004</v>
+      </c>
+      <c r="E402">
+        <f t="shared" si="64"/>
+        <v>0.88193837801599995</v>
+      </c>
+      <c r="F402">
+        <f t="shared" si="65"/>
+        <v>5.5716441047360454E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>81</v>
+      </c>
+      <c r="B403">
+        <v>1082.7999115</v>
+      </c>
+      <c r="C403">
+        <v>1333.7202072099999</v>
+      </c>
+      <c r="D403">
+        <v>1110.1429462399999</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="64"/>
+        <v>1.1755543549833336</v>
+      </c>
+      <c r="F403">
+        <f t="shared" si="65"/>
+        <v>7.9475862153526478E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>82</v>
+      </c>
+      <c r="B404">
+        <v>1073.9328861199999</v>
+      </c>
+      <c r="C404">
+        <v>947.76511192299995</v>
+      </c>
+      <c r="D404">
+        <v>1045.93324661</v>
+      </c>
+      <c r="E404">
+        <f t="shared" si="64"/>
+        <v>1.0225437482176667</v>
+      </c>
+      <c r="F404">
+        <f t="shared" si="65"/>
+        <v>3.8253009849945216E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423">
+        <v>0</v>
+      </c>
+      <c r="B423">
+        <v>643.99504661599997</v>
+      </c>
+      <c r="C423">
+        <v>672.84011840799997</v>
+      </c>
+      <c r="D423">
+        <v>650.923967361</v>
+      </c>
+      <c r="E423">
+        <f>AVERAGE(B423:D423)/1000</f>
+        <v>0.655919710795</v>
+      </c>
+      <c r="F423">
+        <f>STDEV(B423:D423)/SQRT(3)/1000</f>
+        <v>8.6934387330364262E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424">
+        <v>2000</v>
+      </c>
+      <c r="B424">
+        <v>885.92195510900001</v>
+      </c>
+      <c r="C424">
+        <v>668.80917549100002</v>
+      </c>
+      <c r="D424">
+        <v>719.644069672</v>
+      </c>
+      <c r="E424">
+        <f t="shared" ref="E424:E428" si="66">AVERAGE(B424:D424)/1000</f>
+        <v>0.75812506675733349</v>
+      </c>
+      <c r="F424">
+        <f t="shared" ref="F424:F428" si="67">STDEV(B424:D424)/SQRT(3)/1000</f>
+        <v>6.5561879474977269E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425">
+        <v>4000</v>
+      </c>
+      <c r="B425">
+        <v>814.193964005</v>
+      </c>
+      <c r="C425">
+        <v>724.97892379799998</v>
+      </c>
+      <c r="D425">
+        <v>1146.40903473</v>
+      </c>
+      <c r="E425">
+        <f t="shared" si="66"/>
+        <v>0.89519397417766655</v>
+      </c>
+      <c r="F425">
+        <f t="shared" si="67"/>
+        <v>0.12822062475283133</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426">
+        <v>6000</v>
+      </c>
+      <c r="B426">
+        <v>888.97800445600001</v>
+      </c>
+      <c r="C426">
+        <v>852.29897499100002</v>
+      </c>
+      <c r="D426">
+        <v>1158.45990181</v>
+      </c>
+      <c r="E426">
+        <f t="shared" si="66"/>
+        <v>0.96657896041900004</v>
+      </c>
+      <c r="F426">
+        <f t="shared" si="67"/>
+        <v>9.6522984399996278E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427">
+        <v>8000</v>
+      </c>
+      <c r="B427">
+        <v>883.68082046500001</v>
+      </c>
+      <c r="C427">
+        <v>941.20216369599996</v>
+      </c>
+      <c r="D427">
+        <v>1361.6869449599999</v>
+      </c>
+      <c r="E427">
+        <f t="shared" si="66"/>
+        <v>1.0621899763736666</v>
+      </c>
+      <c r="F427">
+        <f t="shared" si="67"/>
+        <v>0.15066630000996345</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428">
+        <v>10000</v>
+      </c>
+      <c r="B428">
+        <v>1090.36803246</v>
+      </c>
+      <c r="C428">
+        <v>1462.0330333700001</v>
+      </c>
+      <c r="D428">
+        <v>1279.1872024500001</v>
+      </c>
+      <c r="E428">
+        <f t="shared" si="66"/>
+        <v>1.2771960894266667</v>
+      </c>
+      <c r="F428">
+        <f t="shared" si="67"/>
+        <v>0.10729506298623623</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432">
+        <v>0</v>
+      </c>
+      <c r="B432">
+        <v>99.756002426099997</v>
+      </c>
+      <c r="C432">
+        <v>110.245227814</v>
+      </c>
+      <c r="D432">
+        <v>102.16212272600001</v>
+      </c>
+      <c r="E432">
+        <f>AVERAGE(B432:D432)/1000</f>
+        <v>0.1040544509887</v>
+      </c>
+      <c r="F432">
+        <f>STDEV(B432:D432)/SQRT(3)/1000</f>
+        <v>3.1723620011962382E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433">
+        <v>2000</v>
+      </c>
+      <c r="B433">
+        <v>101.451873779</v>
+      </c>
+      <c r="C433">
+        <v>123.43287468</v>
+      </c>
+      <c r="D433">
+        <v>98.381996154800007</v>
+      </c>
+      <c r="E433">
+        <f t="shared" ref="E433:E437" si="68">AVERAGE(B433:D433)/1000</f>
+        <v>0.10775558153793333</v>
+      </c>
+      <c r="F433">
+        <f t="shared" ref="F433:F437" si="69">STDEV(B433:D433)/SQRT(3)/1000</f>
+        <v>7.8885819881990508E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434">
+        <v>4000</v>
+      </c>
+      <c r="B434">
+        <v>99.822998046899997</v>
+      </c>
+      <c r="C434">
+        <v>114.430189133</v>
+      </c>
+      <c r="D434">
+        <v>137.850046158</v>
+      </c>
+      <c r="E434">
+        <f t="shared" si="68"/>
+        <v>0.11736774444596666</v>
+      </c>
+      <c r="F434">
+        <f t="shared" si="69"/>
+        <v>1.1075288113988032E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435">
+        <v>6000</v>
+      </c>
+      <c r="B435">
+        <v>105.63802719100001</v>
+      </c>
+      <c r="C435">
+        <v>98.459959030199997</v>
+      </c>
+      <c r="D435">
+        <v>98.706960678100003</v>
+      </c>
+      <c r="E435">
+        <f t="shared" si="68"/>
+        <v>0.10093498229976668</v>
+      </c>
+      <c r="F435">
+        <f t="shared" si="69"/>
+        <v>2.3526032311911652E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436">
+        <v>8000</v>
+      </c>
+      <c r="B436">
+        <v>100.245952606</v>
+      </c>
+      <c r="C436">
+        <v>98.357915878300005</v>
+      </c>
+      <c r="D436">
+        <v>148.89693260199999</v>
+      </c>
+      <c r="E436">
+        <f t="shared" si="68"/>
+        <v>0.1158336003621</v>
+      </c>
+      <c r="F436">
+        <f t="shared" si="69"/>
+        <v>1.6540648161179537E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437">
+        <v>10000</v>
+      </c>
+      <c r="B437">
+        <v>100.255966187</v>
+      </c>
+      <c r="C437">
+        <v>97.819089889500006</v>
+      </c>
+      <c r="D437">
+        <v>98.392009735100004</v>
+      </c>
+      <c r="E437">
+        <f t="shared" si="68"/>
+        <v>9.8822355270533346E-2</v>
+      </c>
+      <c r="F437">
+        <f t="shared" si="69"/>
+        <v>7.3563792774930363E-4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441">
+        <v>0</v>
+      </c>
+      <c r="B441">
+        <v>429.532766342</v>
+      </c>
+      <c r="C441">
+        <v>509.52672958400001</v>
+      </c>
+      <c r="D441">
+        <v>468.388080597</v>
+      </c>
+      <c r="E441">
+        <f>AVERAGE(B441:D441)/1000</f>
+        <v>0.46914919217433332</v>
+      </c>
+      <c r="F441">
+        <f>STDEV(B441:D441)/SQRT(3)/1000</f>
+        <v>2.309540363301376E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442">
+        <v>2000</v>
+      </c>
+      <c r="B442">
+        <v>549.98493194599996</v>
+      </c>
+      <c r="C442">
+        <v>522.40777015699996</v>
+      </c>
+      <c r="D442">
+        <v>527.72283554099999</v>
+      </c>
+      <c r="E442">
+        <f t="shared" ref="E442:E446" si="70">AVERAGE(B442:D442)/1000</f>
+        <v>0.53337184588133335</v>
+      </c>
+      <c r="F442">
+        <f t="shared" ref="F442:F446" si="71">STDEV(B442:D442)/SQRT(3)/1000</f>
+        <v>8.4470596748822402E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443">
+        <v>4000</v>
+      </c>
+      <c r="B443">
+        <v>670.30596733100003</v>
+      </c>
+      <c r="C443">
+        <v>514.66488838199996</v>
+      </c>
+      <c r="D443">
+        <v>591.71104431200001</v>
+      </c>
+      <c r="E443">
+        <f t="shared" si="70"/>
+        <v>0.59222730000833335</v>
+      </c>
+      <c r="F443">
+        <f t="shared" si="71"/>
+        <v>4.493045089936288E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444">
+        <v>6000</v>
+      </c>
+      <c r="B444">
+        <v>595.73507309000001</v>
+      </c>
+      <c r="C444">
+        <v>691.74814224199997</v>
+      </c>
+      <c r="D444">
+        <v>654.448986053</v>
+      </c>
+      <c r="E444">
+        <f t="shared" si="70"/>
+        <v>0.64731073379499993</v>
+      </c>
+      <c r="F444">
+        <f t="shared" si="71"/>
+        <v>2.7945442955699795E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445">
+        <v>8000</v>
+      </c>
+      <c r="B445">
+        <v>987.55621910100001</v>
+      </c>
+      <c r="C445">
+        <v>604.31504249600005</v>
+      </c>
+      <c r="D445">
+        <v>598.46496581999997</v>
+      </c>
+      <c r="E445">
+        <f t="shared" si="70"/>
+        <v>0.73011207580566673</v>
+      </c>
+      <c r="F445">
+        <f t="shared" si="71"/>
+        <v>0.12873314910708378</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446">
+        <v>10000</v>
+      </c>
+      <c r="B446">
+        <v>1129.78601456</v>
+      </c>
+      <c r="C446">
+        <v>639.277935028</v>
+      </c>
+      <c r="D446">
+        <v>633.72969627400005</v>
+      </c>
+      <c r="E446">
+        <f t="shared" si="70"/>
+        <v>0.80093121528733346</v>
+      </c>
+      <c r="F446">
+        <f t="shared" si="71"/>
+        <v>0.16443519999462525</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>56</v>
+      </c>
+      <c r="B452" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>0</v>
+      </c>
+      <c r="B454">
+        <v>99.756002426099997</v>
+      </c>
+      <c r="C454">
+        <v>110.245227814</v>
+      </c>
+      <c r="D454">
+        <v>102.16212272600001</v>
+      </c>
+      <c r="E454">
+        <f>AVERAGE(A454:D454)/1000</f>
+        <v>0.1040544509887</v>
+      </c>
+      <c r="F454">
+        <f>STDEV(B454:D454)/SQRT(3)/1000</f>
+        <v>3.1723620011962382E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>38</v>
+      </c>
+      <c r="B455">
+        <v>96.487998962399999</v>
+      </c>
+      <c r="C455">
+        <v>99.848985671999998</v>
+      </c>
+      <c r="D455">
+        <v>91.433048248299997</v>
+      </c>
+      <c r="E455">
+        <f t="shared" ref="E455:E461" si="72">AVERAGE(A455:D455)/1000</f>
+        <v>9.5923344294233326E-2</v>
+      </c>
+      <c r="F455">
+        <f t="shared" ref="F455:F461" si="73">STDEV(B455:D455)/SQRT(3)/1000</f>
+        <v>2.4458213924038116E-3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>45</v>
+      </c>
+      <c r="B456">
+        <v>94.600200653100003</v>
+      </c>
+      <c r="C456">
+        <v>144.89197730999999</v>
+      </c>
+      <c r="D456">
+        <v>137.93396949800001</v>
+      </c>
+      <c r="E456">
+        <f t="shared" si="72"/>
+        <v>0.12580871582036668</v>
+      </c>
+      <c r="F456">
+        <f t="shared" si="73"/>
+        <v>1.5733001752018951E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>51</v>
+      </c>
+      <c r="B457">
+        <v>116.452932358</v>
+      </c>
+      <c r="C457">
+        <v>96.336126327499997</v>
+      </c>
+      <c r="D457">
+        <v>103.34300994900001</v>
+      </c>
+      <c r="E457">
+        <f t="shared" si="72"/>
+        <v>0.1053773562115</v>
+      </c>
+      <c r="F457">
+        <f t="shared" si="73"/>
+        <v>5.895631002530633E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>69</v>
+      </c>
+      <c r="B458">
+        <v>113.95907402</v>
+      </c>
+      <c r="C458">
+        <v>112.250089645</v>
+      </c>
+      <c r="D458">
+        <v>106.498003006</v>
+      </c>
+      <c r="E458">
+        <f t="shared" si="72"/>
+        <v>0.11090238889033333</v>
+      </c>
+      <c r="F458">
+        <f t="shared" si="73"/>
+        <v>2.2567763263915907E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>14</v>
+      </c>
+      <c r="B459">
+        <v>643.99504661599997</v>
+      </c>
+      <c r="C459">
+        <v>672.84011840799997</v>
+      </c>
+      <c r="D459">
+        <v>650.923967361</v>
+      </c>
+      <c r="E459">
+        <f t="shared" si="72"/>
+        <v>0.655919710795</v>
+      </c>
+      <c r="F459">
+        <f t="shared" si="73"/>
+        <v>8.6934387330364262E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>17</v>
+      </c>
+      <c r="B460">
+        <v>429.532766342</v>
+      </c>
+      <c r="C460">
+        <v>509.52672958400001</v>
+      </c>
+      <c r="D460">
+        <v>468.388080597</v>
+      </c>
+      <c r="E460">
+        <f t="shared" si="72"/>
+        <v>0.46914919217433332</v>
+      </c>
+      <c r="F460">
+        <f t="shared" si="73"/>
+        <v>2.309540363301376E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="B461">
+        <v>813.23409080500005</v>
+      </c>
+      <c r="E461">
+        <f t="shared" si="72"/>
+        <v>0.81323409080500009</v>
+      </c>
+      <c r="F461" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
   <si>
     <t>guestbook</t>
   </si>
@@ -319,8 +319,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,7 +501,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -581,6 +587,9 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -666,6 +675,9 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4114,6 +4126,66 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$423:$F$428</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0655618794749773</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.128220624752831</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0965229843999963</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.150666300009963</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.107295062986236</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$423:$F$428</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0655618794749773</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.128220624752831</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0965229843999963</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.150666300009963</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.107295062986236</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$423:$A$428</c:f>
@@ -4179,6 +4251,66 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$432:$F$437</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00788858198819905</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.011075288113988</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00235260323119116</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0165406481611795</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000735637927749303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$432:$F$437</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00788858198819905</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.011075288113988</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00235260323119116</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0165406481611795</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000735637927749303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$432:$E$437</c:f>
@@ -4217,6 +4349,66 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$441:$F$446</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00844705967488224</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0449304508993629</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0279454429556998</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.128733149107084</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.164435199994625</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$441:$F$446</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00844705967488224</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0449304508993629</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0279454429556998</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.128733149107084</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.164435199994625</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$441:$E$446</c:f>
@@ -4430,7 +4622,7 @@
                     <c:v>0.0230954036330138</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0124653998759295</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4463,7 +4655,7 @@
                     <c:v>0.0230954036330138</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0124653998759295</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4529,7 +4721,7 @@
                   <c:v>0.469149192174333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.813234090805</c:v>
+                  <c:v>0.664395650228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,6 +4760,8 @@
         <c:axId val="-2084420376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4596,6 +4790,552 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2085524056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs. Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of APIs in App</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(After Storage Optimization)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$481:$F$491</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00396534973583767</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0222960222694572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.05296202398271</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0243780475039497</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0478972160326112</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0773001841424684</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10296769689975</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0441003052087831</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.102601209821015</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.124059579877022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0738715558064387</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$481:$F$491</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00396534973583767</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0222960222694572</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.05296202398271</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0243780475039497</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0478972160326112</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0773001841424684</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.10296769689975</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0441003052087831</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.102601209821015</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.124059579877022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0738715558064387</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$481:$A$491</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$481:$E$491</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.100585063298633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.417927821477333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.704440196355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.790132999420333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.056848287580667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.353852669396667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.59418129921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.90075000127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.002970457076667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.179854631423333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.33307258288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2077358920"/>
+        <c:axId val="-2070299640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2077358920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of APIs in Application</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070299640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070299640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077358920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Dependencies in App</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(After Storage Optimization)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$505:$A$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$505:$E$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.452794631322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.462498982747333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469740311304667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.489990075429333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.527746677398333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.547311305999667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2068824856"/>
+        <c:axId val="-2068716904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2068824856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Dependencies in App</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2068716904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2068716904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2068824856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7233,6 +7973,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>499</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7558,10 +8358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N461"/>
+  <dimension ref="A1:N510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13045,15 +13845,430 @@
         <v>25</v>
       </c>
       <c r="B461">
-        <v>813.23409080500005</v>
+        <v>675.64797401400006</v>
+      </c>
+      <c r="C461">
+        <v>678.03597450300003</v>
+      </c>
+      <c r="D461">
+        <v>639.50300216699998</v>
       </c>
       <c r="E461">
         <f t="shared" si="72"/>
-        <v>0.81323409080500009</v>
-      </c>
-      <c r="F461" t="e">
+        <v>0.66439565022800007</v>
+      </c>
+      <c r="F461">
         <f t="shared" si="73"/>
-        <v>#DIV/0!</v>
+        <v>1.2465399875929546E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481">
+        <v>0</v>
+      </c>
+      <c r="B481">
+        <v>108.09612274200001</v>
+      </c>
+      <c r="C481">
+        <v>99.034070968600005</v>
+      </c>
+      <c r="D481">
+        <v>94.624996185300006</v>
+      </c>
+      <c r="E481">
+        <f>AVERAGE(B481:D481)/1000</f>
+        <v>0.10058506329863333</v>
+      </c>
+      <c r="F481">
+        <f>STDEV(B481:D481)/SQRT(3)/1000</f>
+        <v>3.9653497358376711E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482">
+        <v>1</v>
+      </c>
+      <c r="B482">
+        <v>457.54814147899998</v>
+      </c>
+      <c r="C482">
+        <v>415.83800315899998</v>
+      </c>
+      <c r="D482">
+        <v>380.397319794</v>
+      </c>
+      <c r="E482">
+        <f t="shared" ref="E482:E491" si="74">AVERAGE(B482:D482)/1000</f>
+        <v>0.41792782147733326</v>
+      </c>
+      <c r="F482">
+        <f t="shared" ref="F482:F491" si="75">STDEV(B482:D482)/SQRT(3)/1000</f>
+        <v>2.2296022269457223E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483">
+        <v>2</v>
+      </c>
+      <c r="B483">
+        <v>747.94530868499999</v>
+      </c>
+      <c r="C483">
+        <v>599.04909133900003</v>
+      </c>
+      <c r="D483">
+        <v>766.32618904100002</v>
+      </c>
+      <c r="E483">
+        <f t="shared" si="74"/>
+        <v>0.70444019635499999</v>
+      </c>
+      <c r="F483">
+        <f t="shared" si="75"/>
+        <v>5.2962023982710021E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484">
+        <v>3</v>
+      </c>
+      <c r="B484">
+        <v>836.07316017200003</v>
+      </c>
+      <c r="C484">
+        <v>781.30483627299998</v>
+      </c>
+      <c r="D484">
+        <v>753.02100181599997</v>
+      </c>
+      <c r="E484">
+        <f t="shared" si="74"/>
+        <v>0.79013299942033333</v>
+      </c>
+      <c r="F484">
+        <f t="shared" si="75"/>
+        <v>2.4378047503949663E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485">
+        <v>961.61508560200002</v>
+      </c>
+      <c r="C485">
+        <v>1113.4319305399999</v>
+      </c>
+      <c r="D485">
+        <v>1095.4978466</v>
+      </c>
+      <c r="E485">
+        <f t="shared" si="74"/>
+        <v>1.0568482875806666</v>
+      </c>
+      <c r="F485">
+        <f t="shared" si="75"/>
+        <v>4.7897216032611184E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486">
+        <v>5</v>
+      </c>
+      <c r="B486">
+        <v>1214.5600318899999</v>
+      </c>
+      <c r="C486">
+        <v>1365.4117584200001</v>
+      </c>
+      <c r="D486">
+        <v>1481.58621788</v>
+      </c>
+      <c r="E486">
+        <f t="shared" si="74"/>
+        <v>1.3538526693966666</v>
+      </c>
+      <c r="F486">
+        <f t="shared" si="75"/>
+        <v>7.7300184142468364E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487">
+        <v>6</v>
+      </c>
+      <c r="B487">
+        <v>1799.0128993999999</v>
+      </c>
+      <c r="C487">
+        <v>1510.20598412</v>
+      </c>
+      <c r="D487">
+        <v>1473.32501411</v>
+      </c>
+      <c r="E487">
+        <f t="shared" si="74"/>
+        <v>1.5941812992100002</v>
+      </c>
+      <c r="F487">
+        <f t="shared" si="75"/>
+        <v>0.10296769689975044</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488">
+        <v>7</v>
+      </c>
+      <c r="B488">
+        <v>1904.0298461899999</v>
+      </c>
+      <c r="C488">
+        <v>1822.7789402000001</v>
+      </c>
+      <c r="D488">
+        <v>1975.4412174199999</v>
+      </c>
+      <c r="E488">
+        <f t="shared" si="74"/>
+        <v>1.90075000127</v>
+      </c>
+      <c r="F488">
+        <f t="shared" si="75"/>
+        <v>4.4100305208783074E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489">
+        <v>8</v>
+      </c>
+      <c r="B489">
+        <v>1856.74715042</v>
+      </c>
+      <c r="C489">
+        <v>1951.4021873500001</v>
+      </c>
+      <c r="D489">
+        <v>2200.7620334600001</v>
+      </c>
+      <c r="E489">
+        <f t="shared" si="74"/>
+        <v>2.0029704570766671</v>
+      </c>
+      <c r="F489">
+        <f t="shared" si="75"/>
+        <v>0.10260120982101514</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490">
+        <v>9</v>
+      </c>
+      <c r="B490">
+        <v>2364.0580177299998</v>
+      </c>
+      <c r="C490">
+        <v>1943.79401207</v>
+      </c>
+      <c r="D490">
+        <v>2231.7118644699999</v>
+      </c>
+      <c r="E490">
+        <f t="shared" si="74"/>
+        <v>2.1798546314233334</v>
+      </c>
+      <c r="F490">
+        <f t="shared" si="75"/>
+        <v>0.12405957987702163</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491">
+        <v>10</v>
+      </c>
+      <c r="B491">
+        <v>2470.2639579800002</v>
+      </c>
+      <c r="C491">
+        <v>2216.9909477199999</v>
+      </c>
+      <c r="D491">
+        <v>2311.96284294</v>
+      </c>
+      <c r="E491">
+        <f t="shared" si="74"/>
+        <v>2.3330725828799999</v>
+      </c>
+      <c r="F491">
+        <f t="shared" si="75"/>
+        <v>7.3871555806438755E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505">
+        <v>0</v>
+      </c>
+      <c r="B505">
+        <v>404.35910224899999</v>
+      </c>
+      <c r="C505">
+        <v>591.34411811799998</v>
+      </c>
+      <c r="D505">
+        <v>362.68067359899999</v>
+      </c>
+      <c r="E505">
+        <f>AVERAGE(B505:D505)/1000</f>
+        <v>0.45279463132199999</v>
+      </c>
+      <c r="F505">
+        <f>STDEV(B505:D505)/SQRT(3)/1000</f>
+        <v>7.0311789130651198E-2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506">
+        <v>10</v>
+      </c>
+      <c r="B506">
+        <v>424.52478408799999</v>
+      </c>
+      <c r="C506">
+        <v>470.74389457699999</v>
+      </c>
+      <c r="D506">
+        <v>492.22826957699999</v>
+      </c>
+      <c r="E506">
+        <f t="shared" ref="E506:E510" si="76">AVERAGE(B506:D506)/1000</f>
+        <v>0.46249898274733331</v>
+      </c>
+      <c r="F506">
+        <f t="shared" ref="F506:F510" si="77">STDEV(B506:D506)/SQRT(3)/1000</f>
+        <v>1.9974353682902495E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507">
+        <v>20</v>
+      </c>
+      <c r="B507">
+        <v>450.120925903</v>
+      </c>
+      <c r="C507">
+        <v>478.01589965800002</v>
+      </c>
+      <c r="D507">
+        <v>481.08410835299998</v>
+      </c>
+      <c r="E507">
+        <f t="shared" si="76"/>
+        <v>0.46974031130466665</v>
+      </c>
+      <c r="F507">
+        <f t="shared" si="77"/>
+        <v>9.8495970950316335E-3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508">
+        <v>30</v>
+      </c>
+      <c r="B508">
+        <v>473.20699691800002</v>
+      </c>
+      <c r="C508">
+        <v>542.158126831</v>
+      </c>
+      <c r="D508">
+        <v>454.60510253899997</v>
+      </c>
+      <c r="E508">
+        <f t="shared" si="76"/>
+        <v>0.48999007542933332</v>
+      </c>
+      <c r="F508">
+        <f t="shared" si="77"/>
+        <v>2.6631039589841216E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509">
+        <v>40</v>
+      </c>
+      <c r="B509">
+        <v>452.75497436500001</v>
+      </c>
+      <c r="C509">
+        <v>549.13997650099998</v>
+      </c>
+      <c r="D509">
+        <v>581.34508132899998</v>
+      </c>
+      <c r="E509">
+        <f t="shared" si="76"/>
+        <v>0.52774667739833325</v>
+      </c>
+      <c r="F509">
+        <f t="shared" si="77"/>
+        <v>3.8631199986217349E-2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510">
+        <v>50</v>
+      </c>
+      <c r="B510">
+        <v>557.76119232200006</v>
+      </c>
+      <c r="C510">
+        <v>531.517744064</v>
+      </c>
+      <c r="D510">
+        <v>552.65498161300002</v>
+      </c>
+      <c r="E510">
+        <f t="shared" si="76"/>
+        <v>0.54731130599966671</v>
+      </c>
+      <c r="F510">
+        <f t="shared" si="77"/>
+        <v>8.033176953795667E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -5241,13 +5241,13 @@
                   <c:v>0.469740311304667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.489990075429333</c:v>
+                  <c:v>0.477792421976667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.527746677398333</c:v>
+                  <c:v>0.466437021891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.547311305999667</c:v>
+                  <c:v>0.489546696345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5308,6 +5308,8 @@
         <c:axId val="-2068716904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8360,8 +8362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="C510" sqref="C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14210,7 +14212,7 @@
         <v>30</v>
       </c>
       <c r="B508">
-        <v>473.20699691800002</v>
+        <v>436.61403655999999</v>
       </c>
       <c r="C508">
         <v>542.158126831</v>
@@ -14220,11 +14222,11 @@
       </c>
       <c r="E508">
         <f t="shared" si="76"/>
-        <v>0.48999007542933332</v>
+        <v>0.47779242197666666</v>
       </c>
       <c r="F508">
         <f t="shared" si="77"/>
-        <v>2.6631039589841216E-2</v>
+        <v>3.2599220771932301E-2</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -14235,18 +14237,18 @@
         <v>452.75497436500001</v>
       </c>
       <c r="C509">
-        <v>549.13997650099998</v>
+        <v>495.14698982200002</v>
       </c>
       <c r="D509">
-        <v>581.34508132899998</v>
+        <v>451.409101486</v>
       </c>
       <c r="E509">
         <f t="shared" si="76"/>
-        <v>0.52774667739833325</v>
+        <v>0.466437021891</v>
       </c>
       <c r="F509">
         <f t="shared" si="77"/>
-        <v>3.8631199986217349E-2</v>
+        <v>1.4360240682765892E-2</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -14254,21 +14256,21 @@
         <v>50</v>
       </c>
       <c r="B510">
-        <v>557.76119232200006</v>
+        <v>489.16721344000001</v>
       </c>
       <c r="C510">
-        <v>531.517744064</v>
+        <v>481.272935867</v>
       </c>
       <c r="D510">
-        <v>552.65498161300002</v>
+        <v>498.199939728</v>
       </c>
       <c r="E510">
         <f t="shared" si="76"/>
-        <v>0.54731130599966671</v>
+        <v>0.48954669634500003</v>
       </c>
       <c r="F510">
         <f t="shared" si="77"/>
-        <v>8.033176953795667E-3</v>
+        <v>4.8900876060307859E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="84">
   <si>
     <t>guestbook</t>
   </si>
@@ -319,8 +319,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,7 +505,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -590,6 +594,8 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -678,6 +684,8 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -798,11 +806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2084615224"/>
-        <c:axId val="-2068404072"/>
+        <c:axId val="-2060790920"/>
+        <c:axId val="-2061182952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2084615224"/>
+        <c:axId val="-2060790920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068404072"/>
+        <c:crossAx val="-2061182952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068404072"/>
+        <c:axId val="-2061182952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -870,7 +878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084615224"/>
+        <c:crossAx val="-2060790920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,11 +1085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066730296"/>
-        <c:axId val="-2066017240"/>
+        <c:axId val="-2061203672"/>
+        <c:axId val="-2060774152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066730296"/>
+        <c:axId val="-2061203672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066017240"/>
+        <c:crossAx val="-2060774152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066017240"/>
+        <c:axId val="-2060774152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1130,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066730296"/>
+        <c:crossAx val="-2061203672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,11 +1326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065831112"/>
-        <c:axId val="-2065825400"/>
+        <c:axId val="-2060833000"/>
+        <c:axId val="-2060917896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065831112"/>
+        <c:axId val="-2060833000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065825400"/>
+        <c:crossAx val="-2060917896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065825400"/>
+        <c:axId val="-2060917896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065831112"/>
+        <c:crossAx val="-2060833000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,11 +1864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065785720"/>
-        <c:axId val="-2065974776"/>
+        <c:axId val="-2060710792"/>
+        <c:axId val="-2060506536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065785720"/>
+        <c:axId val="-2060710792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065974776"/>
+        <c:crossAx val="-2060506536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065974776"/>
+        <c:axId val="-2060506536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065785720"/>
+        <c:crossAx val="-2060710792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2206,11 +2214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066223592"/>
-        <c:axId val="-2066217832"/>
+        <c:axId val="-2060993352"/>
+        <c:axId val="2053958424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066223592"/>
+        <c:axId val="-2060993352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066217832"/>
+        <c:crossAx val="2053958424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2251,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066217832"/>
+        <c:axId val="2053958424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -2282,7 +2290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066223592"/>
+        <c:crossAx val="-2060993352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2492,11 +2500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2065966760"/>
-        <c:axId val="-2088292056"/>
+        <c:axId val="-2060510840"/>
+        <c:axId val="-2061320632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2065966760"/>
+        <c:axId val="-2060510840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,7 +2533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088292056"/>
+        <c:crossAx val="-2061320632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2533,7 +2541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088292056"/>
+        <c:axId val="-2061320632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2569,7 +2577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065966760"/>
+        <c:crossAx val="-2060510840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2751,11 +2759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2051862504"/>
-        <c:axId val="-2088350024"/>
+        <c:axId val="-2060655048"/>
+        <c:axId val="-2060905064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2051862504"/>
+        <c:axId val="-2060655048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +2792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088350024"/>
+        <c:crossAx val="-2060905064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2792,7 +2800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088350024"/>
+        <c:axId val="-2060905064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2823,7 +2831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051862504"/>
+        <c:crossAx val="-2060655048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3062,11 +3070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088637560"/>
-        <c:axId val="-2088071656"/>
+        <c:axId val="-2060604104"/>
+        <c:axId val="-2060707560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088637560"/>
+        <c:axId val="-2060604104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088071656"/>
+        <c:crossAx val="-2060707560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3103,7 +3111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088071656"/>
+        <c:axId val="-2060707560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,7 +3141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088637560"/>
+        <c:crossAx val="-2060604104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3321,11 +3329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2070329672"/>
-        <c:axId val="-2077203432"/>
+        <c:axId val="-2061245832"/>
+        <c:axId val="-2061469448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2070329672"/>
+        <c:axId val="-2061245832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077203432"/>
+        <c:crossAx val="-2061469448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3362,7 +3370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077203432"/>
+        <c:axId val="-2061469448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070329672"/>
+        <c:crossAx val="-2061245832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3549,11 +3557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2076087464"/>
-        <c:axId val="-2078976184"/>
+        <c:axId val="-2060796904"/>
+        <c:axId val="-2060793928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076087464"/>
+        <c:axId val="-2060796904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078976184"/>
+        <c:crossAx val="-2060793928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078976184"/>
+        <c:axId val="-2060793928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076087464"/>
+        <c:crossAx val="-2060796904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3797,11 +3805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069884232"/>
-        <c:axId val="-2073173992"/>
+        <c:axId val="-2060722648"/>
+        <c:axId val="-2061197432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069884232"/>
+        <c:axId val="-2060722648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +3818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073173992"/>
+        <c:crossAx val="-2061197432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3818,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073173992"/>
+        <c:axId val="-2061197432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +3861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069884232"/>
+        <c:crossAx val="-2060722648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3975,11 +3983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2073529816"/>
-        <c:axId val="-2073491992"/>
+        <c:axId val="-2060530456"/>
+        <c:axId val="-2060735912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073529816"/>
+        <c:axId val="-2060530456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073491992"/>
+        <c:crossAx val="-2060735912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4021,7 +4029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073491992"/>
+        <c:axId val="-2060735912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4052,7 +4060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073529816"/>
+        <c:crossAx val="-2060530456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4448,11 +4456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087667912"/>
-        <c:axId val="2087671000"/>
+        <c:axId val="-2061087480"/>
+        <c:axId val="-2060888040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087667912"/>
+        <c:axId val="-2061087480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087671000"/>
+        <c:crossAx val="-2060888040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4489,7 +4497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087671000"/>
+        <c:axId val="-2060888040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,7 +4532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087667912"/>
+        <c:crossAx val="-2061087480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4736,11 +4744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2085524056"/>
-        <c:axId val="-2084420376"/>
+        <c:axId val="-2068340488"/>
+        <c:axId val="-2067985960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2085524056"/>
+        <c:axId val="-2068340488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,7 +4757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084420376"/>
+        <c:crossAx val="-2067985960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4757,7 +4765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084420376"/>
+        <c:axId val="-2067985960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -4789,7 +4797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085524056"/>
+        <c:crossAx val="-2068340488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5051,11 +5059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077358920"/>
-        <c:axId val="-2070299640"/>
+        <c:axId val="-2070074776"/>
+        <c:axId val="-2069929032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077358920"/>
+        <c:axId val="-2070074776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,7 +5092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070299640"/>
+        <c:crossAx val="-2069929032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5092,7 +5100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070299640"/>
+        <c:axId val="-2069929032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +5130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077358920"/>
+        <c:crossAx val="-2070074776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5264,11 +5272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2068824856"/>
-        <c:axId val="-2068716904"/>
+        <c:axId val="-2070387880"/>
+        <c:axId val="-2070610856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2068824856"/>
+        <c:axId val="-2070387880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5297,7 +5305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068716904"/>
+        <c:crossAx val="-2070610856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5305,7 +5313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068716904"/>
+        <c:axId val="-2070610856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5337,11 +5345,229 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068824856"/>
+        <c:crossAx val="-2070387880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>guestbook</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$529:$A$533</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$529:$E$533</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.102209965388033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0966636339823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0923097133636333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105611006419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144440015157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rest-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$540:$E$544</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.579085906347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.565587361653667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.581990083058667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.598848660787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.642149686813333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2066245896"/>
+        <c:axId val="-2075948920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2066245896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Policies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075948920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075948920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2066245896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5601,11 +5827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2073576744"/>
-        <c:axId val="-2073352920"/>
+        <c:axId val="-2061034856"/>
+        <c:axId val="-2061140856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073576744"/>
+        <c:axId val="-2061034856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5633,7 +5859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073352920"/>
+        <c:crossAx val="-2061140856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5641,7 +5867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073352920"/>
+        <c:axId val="-2061140856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5671,7 +5897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073576744"/>
+        <c:crossAx val="-2061034856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5943,11 +6169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066488680"/>
-        <c:axId val="-2066483192"/>
+        <c:axId val="-2060960472"/>
+        <c:axId val="-2061410648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066488680"/>
+        <c:axId val="-2060960472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5976,7 +6202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066483192"/>
+        <c:crossAx val="-2061410648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5984,7 +6210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066483192"/>
+        <c:axId val="-2061410648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6020,7 +6246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066488680"/>
+        <c:crossAx val="-2060960472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6352,11 +6578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066336616"/>
-        <c:axId val="-2066332760"/>
+        <c:axId val="-2073870440"/>
+        <c:axId val="-2073227528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066336616"/>
+        <c:axId val="-2073870440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6365,7 +6591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066332760"/>
+        <c:crossAx val="-2073227528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6373,7 +6599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066332760"/>
+        <c:axId val="-2073227528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6404,7 +6630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066336616"/>
+        <c:crossAx val="-2073870440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6662,11 +6888,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066509016"/>
-        <c:axId val="-2066503544"/>
+        <c:axId val="-2060696200"/>
+        <c:axId val="-2060965208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066509016"/>
+        <c:axId val="-2060696200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6695,7 +6921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066503544"/>
+        <c:crossAx val="-2060965208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6703,7 +6929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066503544"/>
+        <c:axId val="-2060965208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6739,7 +6965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066509016"/>
+        <c:crossAx val="-2060696200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6939,11 +7165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066604072"/>
-        <c:axId val="-2066087928"/>
+        <c:axId val="-2060515768"/>
+        <c:axId val="-2060783928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066604072"/>
+        <c:axId val="-2060515768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6972,7 +7198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066087928"/>
+        <c:crossAx val="-2060783928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6980,7 +7206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066087928"/>
+        <c:axId val="-2060783928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -7011,7 +7237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066604072"/>
+        <c:crossAx val="-2060515768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7129,11 +7355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066573000"/>
-        <c:axId val="-2066569992"/>
+        <c:axId val="-2061175352"/>
+        <c:axId val="-2061151736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066573000"/>
+        <c:axId val="-2061175352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066569992"/>
+        <c:crossAx val="-2061151736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7150,7 +7376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066569992"/>
+        <c:axId val="-2061151736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7162,7 +7388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066573000"/>
+        <c:crossAx val="-2061175352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7292,11 +7518,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066053288"/>
-        <c:axId val="-2066050280"/>
+        <c:axId val="-2060472280"/>
+        <c:axId val="-2060469272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066053288"/>
+        <c:axId val="-2060472280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7305,7 +7531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066050280"/>
+        <c:crossAx val="-2060469272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7313,7 +7539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066050280"/>
+        <c:axId val="-2060469272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7326,7 +7552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066053288"/>
+        <c:crossAx val="-2060472280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8035,6 +8261,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8360,10 +8616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N510"/>
+  <dimension ref="A1:N544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="C510" sqref="C510"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="C540" sqref="C540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14271,6 +14527,216 @@
       <c r="F510">
         <f t="shared" si="77"/>
         <v>4.8900876060307859E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529">
+        <v>0</v>
+      </c>
+      <c r="B529">
+        <v>102.572917938</v>
+      </c>
+      <c r="C529">
+        <v>113.785028458</v>
+      </c>
+      <c r="D529">
+        <v>90.271949768100001</v>
+      </c>
+      <c r="E529">
+        <f>AVERAGE(B529:D529)/1000</f>
+        <v>0.10220996538803333</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530">
+        <v>1</v>
+      </c>
+      <c r="B530">
+        <v>103.84297370900001</v>
+      </c>
+      <c r="C530">
+        <v>93.656063079800006</v>
+      </c>
+      <c r="D530">
+        <v>92.491865158099998</v>
+      </c>
+      <c r="E530">
+        <f t="shared" ref="E530:E544" si="78">AVERAGE(B530:D530)/1000</f>
+        <v>9.6663633982300004E-2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531">
+        <v>10</v>
+      </c>
+      <c r="B531">
+        <v>95.263957977299995</v>
+      </c>
+      <c r="C531">
+        <v>93.777179717999999</v>
+      </c>
+      <c r="D531">
+        <v>87.888002395599997</v>
+      </c>
+      <c r="E531">
+        <f t="shared" si="78"/>
+        <v>9.2309713363633319E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532">
+        <v>100</v>
+      </c>
+      <c r="B532">
+        <v>126.544952393</v>
+      </c>
+      <c r="C532">
+        <v>92.257976532000001</v>
+      </c>
+      <c r="D532">
+        <v>98.030090332</v>
+      </c>
+      <c r="E532">
+        <f t="shared" si="78"/>
+        <v>0.10561100641899999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533">
+        <v>1000</v>
+      </c>
+      <c r="B533">
+        <v>143.667936325</v>
+      </c>
+      <c r="C533">
+        <v>144.73509788499999</v>
+      </c>
+      <c r="D533">
+        <v>144.917011261</v>
+      </c>
+      <c r="E533">
+        <f t="shared" si="78"/>
+        <v>0.14444001515699997</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540">
+        <v>0</v>
+      </c>
+      <c r="B540">
+        <v>613.58785629299996</v>
+      </c>
+      <c r="C540">
+        <v>561.64598464999995</v>
+      </c>
+      <c r="D540">
+        <v>562.02387809799995</v>
+      </c>
+      <c r="E540">
+        <f t="shared" si="78"/>
+        <v>0.57908590634699986</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541">
+        <v>1</v>
+      </c>
+      <c r="B541">
+        <v>537.80794143699995</v>
+      </c>
+      <c r="C541">
+        <v>588.57727050799997</v>
+      </c>
+      <c r="D541">
+        <v>570.37687301599999</v>
+      </c>
+      <c r="E541">
+        <f t="shared" si="78"/>
+        <v>0.56558736165366652</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542">
+        <v>10</v>
+      </c>
+      <c r="B542">
+        <v>530.74312210100004</v>
+      </c>
+      <c r="C542">
+        <v>519.09899711599996</v>
+      </c>
+      <c r="D542">
+        <v>696.12812995900003</v>
+      </c>
+      <c r="E542">
+        <f t="shared" si="78"/>
+        <v>0.58199008305866662</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543">
+        <v>100</v>
+      </c>
+      <c r="B543">
+        <v>580.501079559</v>
+      </c>
+      <c r="C543">
+        <v>560.85181236300002</v>
+      </c>
+      <c r="D543">
+        <v>655.193090439</v>
+      </c>
+      <c r="E543">
+        <f t="shared" si="78"/>
+        <v>0.59884866078699994</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544">
+        <v>1000</v>
+      </c>
+      <c r="B544">
+        <v>664.40105438199998</v>
+      </c>
+      <c r="C544">
+        <v>643.16797256500001</v>
+      </c>
+      <c r="D544">
+        <v>618.88003349300004</v>
+      </c>
+      <c r="E544">
+        <f t="shared" si="78"/>
+        <v>0.64214968681333351</v>
       </c>
     </row>
   </sheetData>

--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
   <si>
     <t>guestbook</t>
   </si>
@@ -319,8 +319,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,7 +507,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -596,6 +598,7 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +689,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,11 +810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060790920"/>
-        <c:axId val="-2061182952"/>
+        <c:axId val="-2055339528"/>
+        <c:axId val="2143610936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060790920"/>
+        <c:axId val="-2055339528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061182952"/>
+        <c:crossAx val="2143610936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061182952"/>
+        <c:axId val="2143610936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -878,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060790920"/>
+        <c:crossAx val="-2055339528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1085,11 +1089,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2061203672"/>
-        <c:axId val="-2060774152"/>
+        <c:axId val="-2057485864"/>
+        <c:axId val="-2057482888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061203672"/>
+        <c:axId val="-2057485864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060774152"/>
+        <c:crossAx val="-2057482888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1106,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060774152"/>
+        <c:axId val="-2057482888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1138,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061203672"/>
+        <c:crossAx val="-2057485864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060833000"/>
-        <c:axId val="-2060917896"/>
+        <c:axId val="-2057450792"/>
+        <c:axId val="-2057445080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060833000"/>
+        <c:axId val="-2057450792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060917896"/>
+        <c:crossAx val="-2057445080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060917896"/>
+        <c:axId val="-2057445080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060833000"/>
+        <c:crossAx val="-2057450792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1864,11 +1868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060710792"/>
-        <c:axId val="-2060506536"/>
+        <c:axId val="-2057405384"/>
+        <c:axId val="-2057399880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060710792"/>
+        <c:axId val="-2057405384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060506536"/>
+        <c:crossAx val="-2057399880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060506536"/>
+        <c:axId val="-2057399880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060710792"/>
+        <c:crossAx val="-2057405384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2214,11 +2218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060993352"/>
-        <c:axId val="2053958424"/>
+        <c:axId val="2143378168"/>
+        <c:axId val="-2057936184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060993352"/>
+        <c:axId val="2143378168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053958424"/>
+        <c:crossAx val="-2057936184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053958424"/>
+        <c:axId val="-2057936184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -2290,7 +2294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060993352"/>
+        <c:crossAx val="2143378168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,11 +2504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060510840"/>
-        <c:axId val="-2061320632"/>
+        <c:axId val="-2057367592"/>
+        <c:axId val="-2057362136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060510840"/>
+        <c:axId val="-2057367592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061320632"/>
+        <c:crossAx val="-2057362136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2541,7 +2545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061320632"/>
+        <c:axId val="-2057362136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2577,7 +2581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060510840"/>
+        <c:crossAx val="-2057367592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,11 +2763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060655048"/>
-        <c:axId val="-2060905064"/>
+        <c:axId val="-2058206056"/>
+        <c:axId val="-2058211544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060655048"/>
+        <c:axId val="-2058206056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060905064"/>
+        <c:crossAx val="-2058211544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2800,7 +2804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060905064"/>
+        <c:axId val="-2058211544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2831,7 +2835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060655048"/>
+        <c:crossAx val="-2058206056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,11 +3074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060604104"/>
-        <c:axId val="-2060707560"/>
+        <c:axId val="-2058246024"/>
+        <c:axId val="-2058251528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060604104"/>
+        <c:axId val="-2058246024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060707560"/>
+        <c:crossAx val="-2058251528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3111,7 +3115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060707560"/>
+        <c:axId val="-2058251528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +3145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060604104"/>
+        <c:crossAx val="-2058246024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3329,11 +3333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2061245832"/>
-        <c:axId val="-2061469448"/>
+        <c:axId val="-2058284136"/>
+        <c:axId val="-2058289640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2061245832"/>
+        <c:axId val="-2058284136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,7 +3366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061469448"/>
+        <c:crossAx val="-2058289640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3370,7 +3374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061469448"/>
+        <c:axId val="-2058289640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061245832"/>
+        <c:crossAx val="-2058284136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3557,11 +3561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060796904"/>
-        <c:axId val="-2060793928"/>
+        <c:axId val="-2058319608"/>
+        <c:axId val="-2058322600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060796904"/>
+        <c:axId val="-2058319608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3570,7 +3574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060793928"/>
+        <c:crossAx val="-2058322600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3578,7 +3582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060793928"/>
+        <c:axId val="-2058322600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3608,7 +3612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060796904"/>
+        <c:crossAx val="-2058319608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3805,11 +3809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060722648"/>
-        <c:axId val="-2061197432"/>
+        <c:axId val="-2058354200"/>
+        <c:axId val="-2057161384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060722648"/>
+        <c:axId val="-2058354200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061197432"/>
+        <c:crossAx val="-2057161384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3826,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061197432"/>
+        <c:axId val="-2057161384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060722648"/>
+        <c:crossAx val="-2058354200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,11 +3987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060530456"/>
-        <c:axId val="-2060735912"/>
+        <c:axId val="-2057175432"/>
+        <c:axId val="-2057169784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060530456"/>
+        <c:axId val="-2057175432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060735912"/>
+        <c:crossAx val="-2057169784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4029,7 +4033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060735912"/>
+        <c:axId val="-2057169784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4060,7 +4064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060530456"/>
+        <c:crossAx val="-2057175432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4456,11 +4460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2061087480"/>
-        <c:axId val="-2060888040"/>
+        <c:axId val="-2057149320"/>
+        <c:axId val="-2060095960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2061087480"/>
+        <c:axId val="-2057149320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4489,7 +4493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060888040"/>
+        <c:crossAx val="-2060095960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4497,7 +4501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060888040"/>
+        <c:axId val="-2060095960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4532,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061087480"/>
+        <c:crossAx val="-2057149320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4744,11 +4748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2068340488"/>
-        <c:axId val="-2067985960"/>
+        <c:axId val="-2060100568"/>
+        <c:axId val="-2060326408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068340488"/>
+        <c:axId val="-2060100568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067985960"/>
+        <c:crossAx val="-2060326408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4765,7 +4769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067985960"/>
+        <c:axId val="-2060326408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -4797,7 +4801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068340488"/>
+        <c:crossAx val="-2060100568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5059,11 +5063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2070074776"/>
-        <c:axId val="-2069929032"/>
+        <c:axId val="-2056781720"/>
+        <c:axId val="-2060318872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2070074776"/>
+        <c:axId val="-2056781720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,7 +5096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069929032"/>
+        <c:crossAx val="-2060318872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5100,7 +5104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069929032"/>
+        <c:axId val="-2060318872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,7 +5134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070074776"/>
+        <c:crossAx val="-2056781720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5272,11 +5276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2070387880"/>
-        <c:axId val="-2070610856"/>
+        <c:axId val="-2057108088"/>
+        <c:axId val="-2057147112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2070387880"/>
+        <c:axId val="-2057108088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,7 +5309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070610856"/>
+        <c:crossAx val="-2057147112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5313,7 +5317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070610856"/>
+        <c:axId val="-2057147112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5345,7 +5349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070387880"/>
+        <c:crossAx val="-2057108088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5486,11 +5490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066245896"/>
-        <c:axId val="-2075948920"/>
+        <c:axId val="-2057061128"/>
+        <c:axId val="-2056847416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066245896"/>
+        <c:axId val="-2057061128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075948920"/>
+        <c:crossAx val="-2056847416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5527,7 +5531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075948920"/>
+        <c:axId val="-2056847416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5558,7 +5562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066245896"/>
+        <c:crossAx val="-2057061128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5568,6 +5572,245 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EAGER Overhead vs. Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of APIs in App</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$555:$A$565</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$555:$E$565</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.105353434880667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.530105511346667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.98157874743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.048040628433333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.666486978533333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.16454680763333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.96293671923333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.70259126026667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.35092624026667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.19769541423333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.10937015213333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2038967016"/>
+        <c:axId val="-2038962792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2038967016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of APIs in App</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2038962792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2038962792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Spent on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2038967016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5827,11 +6070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2061034856"/>
-        <c:axId val="-2061140856"/>
+        <c:axId val="-2054664120"/>
+        <c:axId val="-2054653752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2061034856"/>
+        <c:axId val="-2054664120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,7 +6102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061140856"/>
+        <c:crossAx val="-2054653752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5867,7 +6110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061140856"/>
+        <c:axId val="-2054653752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5897,7 +6140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061034856"/>
+        <c:crossAx val="-2054664120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6169,11 +6412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060960472"/>
-        <c:axId val="-2061410648"/>
+        <c:axId val="2143520872"/>
+        <c:axId val="2143293592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060960472"/>
+        <c:axId val="2143520872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6202,7 +6445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061410648"/>
+        <c:crossAx val="2143293592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6210,7 +6453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061410648"/>
+        <c:axId val="2143293592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6246,7 +6489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060960472"/>
+        <c:crossAx val="2143520872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6578,11 +6821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073870440"/>
-        <c:axId val="-2073227528"/>
+        <c:axId val="-2057849208"/>
+        <c:axId val="-2057806344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073870440"/>
+        <c:axId val="-2057849208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6591,7 +6834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073227528"/>
+        <c:crossAx val="-2057806344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6599,7 +6842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073227528"/>
+        <c:axId val="-2057806344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6630,7 +6873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073870440"/>
+        <c:crossAx val="-2057849208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6888,11 +7131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060696200"/>
-        <c:axId val="-2060965208"/>
+        <c:axId val="-2058136952"/>
+        <c:axId val="-2058135960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060696200"/>
+        <c:axId val="-2058136952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6921,7 +7164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060965208"/>
+        <c:crossAx val="-2058135960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6929,7 +7172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060965208"/>
+        <c:axId val="-2058135960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6965,7 +7208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060696200"/>
+        <c:crossAx val="-2058136952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7165,11 +7408,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2060515768"/>
-        <c:axId val="-2060783928"/>
+        <c:axId val="-2058143816"/>
+        <c:axId val="-2058094488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2060515768"/>
+        <c:axId val="-2058143816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,7 +7441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060783928"/>
+        <c:crossAx val="-2058094488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7206,7 +7449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060783928"/>
+        <c:axId val="-2058094488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -7237,7 +7480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060515768"/>
+        <c:crossAx val="-2058143816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7355,11 +7598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2061175352"/>
-        <c:axId val="-2061151736"/>
+        <c:axId val="-2058125528"/>
+        <c:axId val="-2058122520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061175352"/>
+        <c:axId val="-2058125528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061151736"/>
+        <c:crossAx val="-2058122520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7376,7 +7619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061151736"/>
+        <c:axId val="-2058122520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7388,7 +7631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061175352"/>
+        <c:crossAx val="-2058125528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7518,11 +7761,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060472280"/>
-        <c:axId val="-2060469272"/>
+        <c:axId val="-2057518872"/>
+        <c:axId val="-2057515864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060472280"/>
+        <c:axId val="-2057518872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7531,7 +7774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060469272"/>
+        <c:crossAx val="-2057515864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7539,7 +7782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060469272"/>
+        <c:axId val="-2057515864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7552,7 +7795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060472280"/>
+        <c:crossAx val="-2057518872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8291,6 +8534,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8616,10 +8889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N544"/>
+  <dimension ref="A1:N565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="C540" sqref="C540"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14544,7 +14817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:6">
       <c r="A529">
         <v>0</v>
       </c>
@@ -14561,8 +14834,12 @@
         <f>AVERAGE(B529:D529)/1000</f>
         <v>0.10220996538803333</v>
       </c>
-    </row>
-    <row r="530" spans="1:5">
+      <c r="F529">
+        <f>STDEV(B529:D529)/SQRT(3)/1000</f>
+        <v>6.7900667224140218E-3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
       <c r="A530">
         <v>1</v>
       </c>
@@ -14579,8 +14856,12 @@
         <f t="shared" ref="E530:E544" si="78">AVERAGE(B530:D530)/1000</f>
         <v>9.6663633982300004E-2</v>
       </c>
-    </row>
-    <row r="531" spans="1:5">
+      <c r="F530">
+        <f t="shared" ref="F530:F544" si="79">STDEV(B530:D530)/SQRT(3)/1000</f>
+        <v>3.6053676827637756E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
       <c r="A531">
         <v>10</v>
       </c>
@@ -14597,8 +14878,12 @@
         <f t="shared" si="78"/>
         <v>9.2309713363633319E-2</v>
       </c>
-    </row>
-    <row r="532" spans="1:5">
+      <c r="F531">
+        <f t="shared" si="79"/>
+        <v>2.2521303478929672E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
       <c r="A532">
         <v>100</v>
       </c>
@@ -14615,8 +14900,12 @@
         <f t="shared" si="78"/>
         <v>0.10561100641899999</v>
       </c>
-    </row>
-    <row r="533" spans="1:5">
+      <c r="F532">
+        <f t="shared" si="79"/>
+        <v>1.0598771862214333E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
       <c r="A533">
         <v>1000</v>
       </c>
@@ -14633,23 +14922,27 @@
         <f t="shared" si="78"/>
         <v>0.14444001515699997</v>
       </c>
-    </row>
-    <row r="536" spans="1:5">
+      <c r="F533">
+        <f t="shared" si="79"/>
+        <v>3.8959483706742866E-4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
       <c r="A536" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:6">
       <c r="A537" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:6">
       <c r="A539" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:6">
       <c r="A540">
         <v>0</v>
       </c>
@@ -14666,8 +14959,12 @@
         <f t="shared" si="78"/>
         <v>0.57908590634699986</v>
       </c>
-    </row>
-    <row r="541" spans="1:5">
+      <c r="F540">
+        <f t="shared" si="79"/>
+        <v>1.7251319885946196E-2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
       <c r="A541">
         <v>1</v>
       </c>
@@ -14684,8 +14981,12 @@
         <f t="shared" si="78"/>
         <v>0.56558736165366652</v>
       </c>
-    </row>
-    <row r="542" spans="1:5">
+      <c r="F541">
+        <f t="shared" si="79"/>
+        <v>1.4850204913258627E-2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
       <c r="A542">
         <v>10</v>
       </c>
@@ -14702,8 +15003,12 @@
         <f t="shared" si="78"/>
         <v>0.58199008305866662</v>
       </c>
-    </row>
-    <row r="543" spans="1:5">
+      <c r="F542">
+        <f t="shared" si="79"/>
+        <v>5.7167930183316458E-2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
       <c r="A543">
         <v>100</v>
       </c>
@@ -14720,8 +15025,12 @@
         <f t="shared" si="78"/>
         <v>0.59884866078699994</v>
       </c>
-    </row>
-    <row r="544" spans="1:5">
+      <c r="F543">
+        <f t="shared" si="79"/>
+        <v>2.8737574068002755E-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
       <c r="A544">
         <v>1000</v>
       </c>
@@ -14737,6 +15046,272 @@
       <c r="E544">
         <f t="shared" si="78"/>
         <v>0.64214968681333351</v>
+      </c>
+      <c r="F544">
+        <f t="shared" si="79"/>
+        <v>1.3150646563296522E-2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555">
+        <v>0</v>
+      </c>
+      <c r="B555">
+        <v>111.097097397</v>
+      </c>
+      <c r="C555">
+        <v>103.89113426199999</v>
+      </c>
+      <c r="D555">
+        <v>101.072072983</v>
+      </c>
+      <c r="E555">
+        <f>AVERAGE(B555:D555)/1000</f>
+        <v>0.10535343488066667</v>
+      </c>
+      <c r="F555">
+        <f>STDEV(B555:D555)/SQRT(3)/1000</f>
+        <v>2.9849076451284448E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556">
+        <v>10</v>
+      </c>
+      <c r="B556">
+        <v>2008.6109638200001</v>
+      </c>
+      <c r="C556">
+        <v>2925.7197380100001</v>
+      </c>
+      <c r="D556">
+        <v>2655.9858322099999</v>
+      </c>
+      <c r="E556">
+        <f t="shared" ref="E556:E565" si="80">AVERAGE(B556:D556)/1000</f>
+        <v>2.5301055113466671</v>
+      </c>
+      <c r="F556">
+        <f t="shared" ref="F556:F565" si="81">STDEV(B556:D556)/SQRT(3)/1000</f>
+        <v>0.27212528812391007</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557">
+        <v>20</v>
+      </c>
+      <c r="B557">
+        <v>4141.4732932999996</v>
+      </c>
+      <c r="C557">
+        <v>3989.7158145899998</v>
+      </c>
+      <c r="D557">
+        <v>3813.5471343999998</v>
+      </c>
+      <c r="E557">
+        <f t="shared" si="80"/>
+        <v>3.9815787474299995</v>
+      </c>
+      <c r="F557">
+        <f t="shared" si="81"/>
+        <v>9.4751517699721205E-2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558">
+        <v>30</v>
+      </c>
+      <c r="B558">
+        <v>6794.84295845</v>
+      </c>
+      <c r="C558">
+        <v>5769.6349620800002</v>
+      </c>
+      <c r="D558">
+        <v>5579.6439647699999</v>
+      </c>
+      <c r="E558">
+        <f t="shared" si="80"/>
+        <v>6.0480406284333332</v>
+      </c>
+      <c r="F558">
+        <f t="shared" si="81"/>
+        <v>0.37740757581755652</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559">
+        <v>40</v>
+      </c>
+      <c r="B559">
+        <v>7199.0180015599999</v>
+      </c>
+      <c r="C559">
+        <v>7080.9957981099997</v>
+      </c>
+      <c r="D559">
+        <v>8719.4471359300005</v>
+      </c>
+      <c r="E559">
+        <f t="shared" si="80"/>
+        <v>7.6664869785333334</v>
+      </c>
+      <c r="F559">
+        <f t="shared" si="81"/>
+        <v>0.52758131440420608</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560">
+        <v>50</v>
+      </c>
+      <c r="B560">
+        <v>11127.7649403</v>
+      </c>
+      <c r="C560">
+        <v>8515.5582427999998</v>
+      </c>
+      <c r="D560">
+        <v>10850.317239800001</v>
+      </c>
+      <c r="E560">
+        <f t="shared" si="80"/>
+        <v>10.164546807633334</v>
+      </c>
+      <c r="F560">
+        <f t="shared" si="81"/>
+        <v>0.82837527160933055</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561">
+        <v>60</v>
+      </c>
+      <c r="B561">
+        <v>10766.1180496</v>
+      </c>
+      <c r="C561">
+        <v>10592.2410488</v>
+      </c>
+      <c r="D561">
+        <v>11530.4510593</v>
+      </c>
+      <c r="E561">
+        <f t="shared" si="80"/>
+        <v>10.962936719233332</v>
+      </c>
+      <c r="F561">
+        <f t="shared" si="81"/>
+        <v>0.28816239489090095</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562">
+        <v>70</v>
+      </c>
+      <c r="B562">
+        <v>12159.664869300001</v>
+      </c>
+      <c r="C562">
+        <v>13800.518035900001</v>
+      </c>
+      <c r="D562">
+        <v>15147.590875600001</v>
+      </c>
+      <c r="E562">
+        <f t="shared" si="80"/>
+        <v>13.702591260266667</v>
+      </c>
+      <c r="F562">
+        <f t="shared" si="81"/>
+        <v>0.86392856472056823</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563">
+        <v>80</v>
+      </c>
+      <c r="B563">
+        <v>14158.5488319</v>
+      </c>
+      <c r="C563">
+        <v>14231.5280437</v>
+      </c>
+      <c r="D563">
+        <v>14662.701845199999</v>
+      </c>
+      <c r="E563">
+        <f t="shared" si="80"/>
+        <v>14.350926240266666</v>
+      </c>
+      <c r="F563">
+        <f t="shared" si="81"/>
+        <v>0.157304918563064</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564">
+        <v>90</v>
+      </c>
+      <c r="B564">
+        <v>18986.874103499998</v>
+      </c>
+      <c r="C564">
+        <v>15706.987142600001</v>
+      </c>
+      <c r="D564">
+        <v>16899.224996600002</v>
+      </c>
+      <c r="E564">
+        <f t="shared" si="80"/>
+        <v>17.197695414233333</v>
+      </c>
+      <c r="F564">
+        <f t="shared" si="81"/>
+        <v>0.95851066099480919</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565">
+        <v>100</v>
+      </c>
+      <c r="B565">
+        <v>18554.075956299999</v>
+      </c>
+      <c r="C565">
+        <v>18556.4262867</v>
+      </c>
+      <c r="D565">
+        <v>20217.608213399999</v>
+      </c>
+      <c r="E565">
+        <f t="shared" si="80"/>
+        <v>19.10937015213333</v>
+      </c>
+      <c r="F565">
+        <f t="shared" si="81"/>
+        <v>0.55411944601121332</v>
       </c>
     </row>
   </sheetData>
